--- a/productdata.xlsx
+++ b/productdata.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>1N4007-DC</t>
   </si>
@@ -160,147 +160,6 @@
   </si>
   <si>
     <t>ЖОПА</t>
-  </si>
-  <si>
-    <t>Диод: выпрямительный; THT; 1кВ; 1А; Упаковка: Ammo Pack; DO41</t>
-  </si>
-  <si>
-    <t>Периферийная микросхема; нестабильный,моностабильная,часы RC</t>
-  </si>
-  <si>
-    <t>Модуль; диод/транзистор; 500В; 24А; V1-B-Pack; Ugs: ±20В; винтами</t>
-  </si>
-  <si>
-    <t>Инструмент: для опрессовки; 0,5÷1мм2; 20AWG÷18AWG</t>
-  </si>
-  <si>
-    <t>Блок питания: импульсный; 12ВDC; 6,67А; Вых: 5,5/2,5; 80Вт; 88%</t>
-  </si>
-  <si>
-    <t>Лента: электроизоляционная; W: 19мм; L: 20м; D: 0,18мм; черный; 260%</t>
-  </si>
-  <si>
-    <t>Артикула нет на TME</t>
-  </si>
-  <si>
-    <t>LED; SMD; 0402; белый; 45÷180мкд; 65°; 5мА; 2,65÷3,05В</t>
-  </si>
-  <si>
-    <t>Блок питания: импульсный; LED; 72Вт; 48ВDC; 0,9÷1,5А; 90÷305ВAC</t>
-  </si>
-  <si>
-    <t>Блок питания: импульсный; модульный; 133,2Вт; 12ВDC; 199x98x38мм</t>
-  </si>
-  <si>
-    <t>Дисплей: LCD; графический; 240x128; STN Negative; голубой; LED</t>
-  </si>
-  <si>
-    <t>Вентилятор: DC; осевой; 12ВDC; 120x120x25мм; 93,5м3/ч; 29,6дБА</t>
-  </si>
-  <si>
-    <t>Потенциометр: монтажный; однооборотный,горизонтальный; 5кОм</t>
-  </si>
-  <si>
-    <t>Потенциометр: осевой; 100Ом; 200мВт; ±20%; под пайку; 6мм; L: 16мм</t>
-  </si>
-  <si>
-    <t>LED; 8мм; трехцветный; RGB; Характеристики: программируемый</t>
-  </si>
-  <si>
-    <t>Транзистор: N-MOSFET; полевой; 500В; 17А; 139Вт; PG-TO220-3</t>
-  </si>
-  <si>
-    <t>Транзистор: N-MOSFET; полевой; 200В; 60А; 500Вт; TO220-3; 118нс</t>
-  </si>
-  <si>
-    <t>Транзистор: N-MOSFET; полевой; 600В; 3,8А; 110Вт; TO220FP</t>
-  </si>
-  <si>
-    <t>Транзистор: N-MOSFET; полевой; 60В; 195А; 375Вт; TO247AC</t>
-  </si>
-  <si>
-    <t>Элемент подсветки; 22мм; RMQ-Titan; -25÷70°C; Подсвет: LED; 24ВDC</t>
-  </si>
-  <si>
-    <t>Диод: выпрямительный; THT; 1кВ; 5А; Упаковка: Ammo Pack; DO27; 100нс</t>
-  </si>
-  <si>
-    <t>Вилка; "мама"; SP21; PIN: 12; IP68; 7÷12мм; пайка; на провод; 400В</t>
-  </si>
-  <si>
-    <t>Вилка; "папа"; SP21; PIN: 12; IP68; 7÷12мм; пайка; на провод; 400В</t>
-  </si>
-  <si>
-    <t>Быстроразъемное соединение; с резьбой,угловой 90°; M5; внешняя</t>
-  </si>
-  <si>
-    <t>Диод: выпрямительный Шоттки; SMD; 40В; 0,5А; Ufmax: 0,47В; SOT666</t>
-  </si>
-  <si>
-    <t>Адаптер; гнездо "банан" 4мм,вилочный наконечник; 60ВDC; 36А</t>
-  </si>
-  <si>
-    <t>Модуль: лазерный; 7мВт; красный; крест; 635нм; 4,5÷30ВDC; IP54</t>
-  </si>
-  <si>
-    <t>Микроконтроллер PIC; Память: 7кБ; SRAM: 256Б; EEPROM: 256Б; SMD</t>
-  </si>
-  <si>
-    <t>ИК-передатчик; 3мм; 940нм; прозрачная; 1,383÷7,67мВт; 20°; THT</t>
-  </si>
-  <si>
-    <t>Блок питания: импульсный; модульный; 132,5Вт; 5ВDC; 199x98x38мм</t>
-  </si>
-  <si>
-    <t>Набор заклепок</t>
-  </si>
-  <si>
-    <t>Корпус: универсальный; Х: 47мм; Y: 66мм; Z: 25мм; ABS</t>
-  </si>
-  <si>
-    <t>Вентилятор: DC; осевой; 12ВDC; 40x40x20мм; 13,01м3/ч; 21дБА; Vapo</t>
-  </si>
-  <si>
-    <t>Блок питания: импульсный; LED; 90,3Вт; 42ВDC; 2,15А; 90÷305ВAC</t>
-  </si>
-  <si>
-    <t>Транзистор: N-MOSFET; PolarHV™; полевой; 600В; 26А; 460Вт; TO247-3</t>
-  </si>
-  <si>
-    <t>Датчик: Холла; Диапазон: ±1000Гс; Uпит: 3÷6,5ВDC; 6мА</t>
-  </si>
-  <si>
-    <t>Предохранитель: плавкая вставка; 175А; 32В; автомобильный; 68,6мм</t>
-  </si>
-  <si>
-    <t>Предохранитель: плавкая вставка; 30А; 32В; автомобильный; 40мм</t>
-  </si>
-  <si>
-    <t>Потенциометр: осевой; однооборотный; 25Ом; 25Вт; 6,35мм; L: 22,23мм</t>
-  </si>
-  <si>
-    <t>PMIC; преобразователь DC/DC; Uвх: 1,5÷5,5В; Uвых: -5,5÷11В; SO8</t>
-  </si>
-  <si>
-    <t>PMIC; преобразователь DC/DC; Uвх: 3,5÷11В; Uвых: 1,25÷10В; SO8</t>
-  </si>
-  <si>
-    <t>Транзистор: NPN; биполярный; 40В; 1А; 625мВт; TO92</t>
-  </si>
-  <si>
-    <t>Изм.аксесс: измерительный набор; черный и красный</t>
-  </si>
-  <si>
-    <t>Блок питания: импульсный; модульный; 324Вт; 36ВDC; 199x105x41мм</t>
-  </si>
-  <si>
-    <t>Подшипник: опорная втулка; Øвнешн: 18мм; Øвнутр: 16мм; L: 20мм</t>
-  </si>
-  <si>
-    <t>Потенциометр: осевой; однооборотный,вертикальный; 10кОм; ±20%</t>
-  </si>
-  <si>
-    <t>Вилка; RJ12; PIN: 6; не экранированный; позолота; Конф: 6p6c; 26AWG</t>
   </si>
 </sst>
 </file>
@@ -618,540 +477,257 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:A48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C31" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1">
-        <v>2.8199999999999997E-4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2">
-        <v>6.7000000000000002E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3">
-        <v>4.7109999999999999E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4">
-        <v>0.56989999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5">
-        <v>0.4637</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6">
-        <v>9.2799999999999994E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
-      <c r="B7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9">
-        <v>0.80200000000000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10">
-        <v>0.6371</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11">
-        <v>0.1835</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12">
-        <v>0.10070000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13">
-        <v>2.02E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14">
-        <v>6.9500000000000004E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15">
-        <v>7.76E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16">
-        <v>2.0249999999999999E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17">
-        <v>2.0530000000000001E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18">
-        <v>1.6750000000000001E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19">
-        <v>5.5750000000000001E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20">
-        <v>3.8700000000000002E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21">
-        <v>1.0970000000000001E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22">
-        <v>2.5899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23">
-        <v>2.1739999999999999E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24">
-        <v>3.29E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25">
-        <v>2.9000000000000004E-5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26">
-        <v>2.96E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27">
-        <v>2.96E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="B28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28">
-        <v>3.0200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29">
-        <v>7.9000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B30" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30">
-        <v>1.3100000000000001E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B31" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31">
-        <v>0.67649999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
-      <c r="B32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32">
-        <v>6.7000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
-      <c r="B33" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33">
-        <v>3.1E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
-      <c r="B34" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34">
-        <v>2.8500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
-      <c r="B35" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35">
-        <v>0.66460000000000008</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>33</v>
       </c>
-      <c r="B36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36">
-        <v>6.2300000000000003E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>34</v>
       </c>
-      <c r="B37" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37">
-        <v>1.0399999999999999E-4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
-      <c r="B38" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38">
-        <v>1.8200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>36</v>
       </c>
-      <c r="B39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39">
-        <v>6.1799999999999997E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>37</v>
       </c>
-      <c r="B40" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40">
-        <v>9.1400000000000009E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>38</v>
       </c>
-      <c r="B41" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41">
-        <v>8.9999999999999992E-5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>39</v>
       </c>
-      <c r="B42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42">
-        <v>8.0000000000000007E-5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>40</v>
       </c>
-      <c r="B43" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43">
-        <v>2.6700000000000004E-4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>41</v>
       </c>
-      <c r="B44" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44">
-        <v>4.5499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>42</v>
       </c>
-      <c r="B45" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45">
-        <v>0.9294</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>43</v>
       </c>
-      <c r="B46" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46">
-        <v>1.5E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>44</v>
       </c>
-      <c r="B47" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47">
-        <v>1.41E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>45</v>
-      </c>
-      <c r="B48" t="s">
-        <v>93</v>
-      </c>
-      <c r="C48">
-        <v>8.5700000000000001E-4</v>
       </c>
     </row>
   </sheetData>

--- a/productdata.xlsx
+++ b/productdata.xlsx
@@ -19,157 +19,585 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
-  <si>
-    <t>1N4007-DC</t>
-  </si>
-  <si>
-    <t>NE555D</t>
-  </si>
-  <si>
-    <t>VUM24-05N</t>
-  </si>
-  <si>
-    <t>OPT-LY-04FL</t>
-  </si>
-  <si>
-    <t>GSM90A12-P1M</t>
-  </si>
-  <si>
-    <t>PREMIUM 111 19MMX20M BLACK</t>
-  </si>
-  <si>
-    <t>VLMW1500-GS08</t>
-  </si>
-  <si>
-    <t>HSG-70-48</t>
-  </si>
-  <si>
-    <t>RID-125-1224</t>
-  </si>
-  <si>
-    <t>RG240128B-BIW-V</t>
-  </si>
-  <si>
-    <t>HAC0251S4-000U-999</t>
-  </si>
-  <si>
-    <t>PT6KV502A2020</t>
-  </si>
-  <si>
-    <t>PR185-100R-A-16P6</t>
-  </si>
-  <si>
-    <t>WS2812D-F8</t>
-  </si>
-  <si>
-    <t>IPP50R199CPXKSA1</t>
-  </si>
-  <si>
-    <t>IXTP60N20T</t>
-  </si>
-  <si>
-    <t>STP6NK60ZFP</t>
-  </si>
-  <si>
-    <t>IRFP3006PBF</t>
-  </si>
-  <si>
-    <t>M22-FLED-RG</t>
-  </si>
-  <si>
-    <t>HER508</t>
-  </si>
-  <si>
-    <t>SP2111/S12 II 1N</t>
-  </si>
-  <si>
-    <t>SP2111/P12 II 1N</t>
-  </si>
-  <si>
-    <t>KQ2L06-M5A</t>
-  </si>
-  <si>
-    <t>PMEG4005AEV.115</t>
-  </si>
-  <si>
-    <t>RDA-S4-W2-B</t>
-  </si>
-  <si>
-    <t>ILM12F-DOE-635-7-247-F</t>
-  </si>
-  <si>
-    <t>PIC16F1933-I/SO</t>
-  </si>
-  <si>
-    <t>LTE-4206</t>
-  </si>
-  <si>
-    <t>RT-125C</t>
-  </si>
-  <si>
-    <t>LNS-1</t>
-  </si>
-  <si>
-    <t>Z24A</t>
-  </si>
-  <si>
-    <t>MF40201V2-1000U-A99</t>
-  </si>
-  <si>
-    <t>LPF-90-42</t>
-  </si>
-  <si>
-    <t>IXFH26N60P</t>
-  </si>
-  <si>
-    <t>SS49E</t>
-  </si>
-  <si>
-    <t>MEGAVAL 175A</t>
-  </si>
-  <si>
-    <t>MIDIVAL 30A</t>
-  </si>
-  <si>
-    <t>RHS25RE</t>
-  </si>
-  <si>
-    <t>MAX660CSA+</t>
-  </si>
-  <si>
-    <t>MAX887HESA+</t>
-  </si>
-  <si>
-    <t>PN2222ATA</t>
-  </si>
-  <si>
-    <t>PMS 0.64</t>
-  </si>
-  <si>
-    <t>HRP-300-36</t>
-  </si>
-  <si>
-    <t>JSM-1618-20</t>
-  </si>
-  <si>
-    <t>RK09K1130A8G</t>
-  </si>
-  <si>
-    <t>P 128</t>
-  </si>
-  <si>
-    <t>ЖОПА</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="187">
+  <si>
+    <t>09-50-3021</t>
+  </si>
+  <si>
+    <t>VTP4085H</t>
+  </si>
+  <si>
+    <t>PMD1238PKB1-A.(2).F.GN</t>
+  </si>
+  <si>
+    <t>SR17A1620F69N</t>
+  </si>
+  <si>
+    <t>VLMW41R1T1-7K8L-08</t>
+  </si>
+  <si>
+    <t>KG-016</t>
+  </si>
+  <si>
+    <t>SKIIP 23NAB126V1 M20</t>
+  </si>
+  <si>
+    <t>SCP-50-12</t>
+  </si>
+  <si>
+    <t>ALTIMU-10 V5</t>
+  </si>
+  <si>
+    <t>RTM-5021-CHROM</t>
+  </si>
+  <si>
+    <t>ULQ2803A</t>
+  </si>
+  <si>
+    <t>WDR-480-48</t>
+  </si>
+  <si>
+    <t>SF68G</t>
+  </si>
+  <si>
+    <t>SFH 4645</t>
+  </si>
+  <si>
+    <t>SFH 4544</t>
+  </si>
+  <si>
+    <t>1-1393243-4</t>
+  </si>
+  <si>
+    <t>502578-0700</t>
+  </si>
+  <si>
+    <t>503149-1000</t>
+  </si>
+  <si>
+    <t>171692-0106</t>
+  </si>
+  <si>
+    <t>226X65</t>
+  </si>
+  <si>
+    <t>LT1767EMS8E-5#PBF</t>
+  </si>
+  <si>
+    <t>PF92251V1-1000U-G99</t>
+  </si>
+  <si>
+    <t>L-934SRD-E</t>
+  </si>
+  <si>
+    <t>ULN2004A</t>
+  </si>
+  <si>
+    <t>39-30-0060</t>
+  </si>
+  <si>
+    <t>42816-0412</t>
+  </si>
+  <si>
+    <t>T910W-20K</t>
+  </si>
+  <si>
+    <t>TR-20-SM</t>
+  </si>
+  <si>
+    <t>SFH620A-3</t>
+  </si>
+  <si>
+    <t>MX-2139-2A</t>
+  </si>
+  <si>
+    <t>Вилка; провод-плата; "мама"; KK 396; 3,96мм; PIN: 2; без контактов</t>
+  </si>
+  <si>
+    <t>static.tme.eu/products_pics/a/d/c/adc7a7c41eb9a5687179d7eef91a53a8/338104.jpg</t>
+  </si>
+  <si>
+    <t>www.tme.eu/ru/details/mx-2139-2a/razemy-signalnye-rastr-3-96mm/molex/09-50-3021/</t>
+  </si>
+  <si>
+    <t>Фотодиод; 925нм; 400-1100нм; Монтаж: THT; 100нА</t>
+  </si>
+  <si>
+    <t>static.tme.eu/products_pics/5/2/7/5272851219b4bcbf50385c044b80ce2c/361407.jpg</t>
+  </si>
+  <si>
+    <t>www.tme.eu/ru/details/vtp4085h/fotodiody/excelitas/</t>
+  </si>
+  <si>
+    <t>PMD1238PKB1AF</t>
+  </si>
+  <si>
+    <t>Вентилятор: DC; осевой; 12ВDC; 38x38x20мм; 20,39м3/ч; 44дБА; 26AWG</t>
+  </si>
+  <si>
+    <t>static.tme.eu/products_pics/3/d/b/3dbb5a0071d20d3ee13a7810da56ffd9/423955.jpg</t>
+  </si>
+  <si>
+    <t>www.tme.eu/ru/details/pmd1238pkb1af/ventiliatory-dc-12v/sunon/pmd1238pkb1-a-2-f-gn/</t>
+  </si>
+  <si>
+    <t>Переключатель: поворотный; Положения: 6; 0,3A/16ВDC; 30°; -20÷70°C</t>
+  </si>
+  <si>
+    <t>static.tme.eu/products_pics/4/f/4/4f4c3b24c14c9b50fb37d0442c936216/463798.jpg</t>
+  </si>
+  <si>
+    <t>www.tme.eu/ru/details/sr17a1620f69n/perekliuchateli-oborotnye/ninigi/</t>
+  </si>
+  <si>
+    <t>LED; SMD; 3528,PLCC2; белый холодный; 112÷355мкд; 5000(тип.)K</t>
+  </si>
+  <si>
+    <t>static.tme.eu/products_pics/b/6/b/b6bd106244234a961251c16ee584774e/492739.jpg</t>
+  </si>
+  <si>
+    <t>www.tme.eu/ru/details/vlmw41r1t1-7k8l-08/svetodiody-smd-belye/vishay/</t>
+  </si>
+  <si>
+    <t>Защитная кромка; полиэтилен; L: 10м; натуральный; H: 5,2мм; W: 4,5мм</t>
+  </si>
+  <si>
+    <t>static.tme.eu/products_pics/8/e/b/8eb8e34502421cab59eaac4e2125b4b1/28137.jpg</t>
+  </si>
+  <si>
+    <t>www.tme.eu/ru/details/kg-016/zashchitnye-nasadki-na-kraia/fix-fasten/</t>
+  </si>
+  <si>
+    <t>SKIIP23NAB126V1</t>
+  </si>
+  <si>
+    <t>Модуль: IGBT; диод/транзистор; 3-фазный мост IGBT; Urmax: 1,2кВ</t>
+  </si>
+  <si>
+    <t>static.tme.eu/products_pics/b/8/8/b88b516c6fd7e20a7f255335f0fd83ea/672271.jpg</t>
+  </si>
+  <si>
+    <t>www.tme.eu/ru/details/skiip23nab126v1/moduli-igbt/semikron/skiip-23nab126v1-m20/</t>
+  </si>
+  <si>
+    <t>Блок питания: ИБП; модульный; 49,7Вт; 13,8ВDC; 129x98x38мм; 3,6А</t>
+  </si>
+  <si>
+    <t>static.tme.eu/products_pics/e/8/4/e846528474d9805d9a18c058c84e8d02/206779.jpg</t>
+  </si>
+  <si>
+    <t>www.tme.eu/ru/details/scp-50-12/bloki-pitaniia-dlia-vstraivaniia/mean-well/</t>
+  </si>
+  <si>
+    <t>POLOLU-2739</t>
+  </si>
+  <si>
+    <t>Датчик: положения; 2,5÷5,5ВDC; I2C; LIS3MDL,LPS25H,LSM6DS33</t>
+  </si>
+  <si>
+    <t>static.tme.eu/products_pics/a/9/b/a9b2dd2c060afe3a66e9976681f00b71/564792.jpg</t>
+  </si>
+  <si>
+    <t>www.tme.eu/ru/details/pololu-2739/datchiki-polozheniia/pololu/altimu-10-v5/</t>
+  </si>
+  <si>
+    <t>Держатель LED; 5мм; хром; вогнутый; с резиновой заглушкой</t>
+  </si>
+  <si>
+    <t>static.tme.eu/products_pics/3/b/f/3bf746acf7bafb655ac88faefb1b5461/374462.jpg</t>
+  </si>
+  <si>
+    <t>www.tme.eu/ru/details/rtm-5021-chrom/patrony/</t>
+  </si>
+  <si>
+    <t>Driver; darlington,транзисторная матрица; 0,5А; 50В; Каналы: 8</t>
+  </si>
+  <si>
+    <t>static.tme.eu/products_pics/3/0/d/30d53284f17bcf109c5d334b1dbb0727/285539.jpg</t>
+  </si>
+  <si>
+    <t>www.tme.eu/ru/details/ulq2803a/draivery-mikroskhemy/stmicroelectronics/</t>
+  </si>
+  <si>
+    <t>Блок питания: импульсный; 480Вт; 48ВDC; 48÷55ВDC; 10А; 180÷550ВAC</t>
+  </si>
+  <si>
+    <t>static.tme.eu/products_pics/3/3/c/33c3235af96f4db2c8837262c86fe4fc/375150.jpg</t>
+  </si>
+  <si>
+    <t>www.tme.eu/ru/details/wdr-480-48/bloki-pitaniia-na-din-reiku/mean-well/</t>
+  </si>
+  <si>
+    <t>SF68G-YAN</t>
+  </si>
+  <si>
+    <t>Диод: выпрямительный; THT; 600В; 6А; Упаковка: лента; R6; 35нс</t>
+  </si>
+  <si>
+    <t>static.tme.eu/products_pics/a/6/6/a66bd3e70b210db4edb54b4b58c697fb/550499.jpg</t>
+  </si>
+  <si>
+    <t>www.tme.eu/ru/details/sf68g-yan/universalnye-diody-tht/yangjie-technology/sf68g/</t>
+  </si>
+  <si>
+    <t>SFH4645</t>
+  </si>
+  <si>
+    <t>ИК-передатчик; 940нм; прозрачная; 80мВт; 15°; SMD; 100мА; 1,5÷1,8В</t>
+  </si>
+  <si>
+    <t>static.tme.eu/products_pics/b/f/0/bf06162c05a27b0624acf3a34115a6d9/586741.jpg</t>
+  </si>
+  <si>
+    <t>www.tme.eu/ru/details/sfh4645/infrakrasnye-ledy/osram/sfh-4645/</t>
+  </si>
+  <si>
+    <t>SFH4544</t>
+  </si>
+  <si>
+    <t>ИК-передатчик; 5мм; 950нм; черная; 550мВт; 10°; THT; 100мА; 1,6÷1,9В</t>
+  </si>
+  <si>
+    <t>static.tme.eu/products_pics/f/e/b/febde61e1b2a7ccd4dfe05ad78c6476d/492380.jpg</t>
+  </si>
+  <si>
+    <t>www.tme.eu/ru/details/sfh4544/infrakrasnye-ledy/osram/sfh-4544/</t>
+  </si>
+  <si>
+    <t>RTE24110</t>
+  </si>
+  <si>
+    <t>Реле: электромагнитное; DPDT; Uобмотки: 110ВDC; 8A/250ВAC; 8А; IP67</t>
+  </si>
+  <si>
+    <t>static.tme.eu/products_pics/c/1/c/c1cddf42b5c032463476cdf943894e36/636642.jpg</t>
+  </si>
+  <si>
+    <t>www.tme.eu/ru/details/rte24110/rele-elektromagn-miniatiurnye/te-connectivity/1-1393243-4/</t>
+  </si>
+  <si>
+    <t>MX-502578-0700</t>
+  </si>
+  <si>
+    <t>Вилка; провод-плата; "мама"; CLIK-Mate; 1,5мм; PIN: 7; на провод</t>
+  </si>
+  <si>
+    <t>static.tme.eu/products_pics/3/c/8/3c86273de4738928cb85ee55c6283721/424952.jpg</t>
+  </si>
+  <si>
+    <t>www.tme.eu/ru/details/mx-502578-0700/razemy-signalnye-rastr-1-50mm/molex/502578-0700/</t>
+  </si>
+  <si>
+    <t>MX-503149-1000</t>
+  </si>
+  <si>
+    <t>Вилка; провод-плата; "мама"; CLIK-Mate; 1,5мм; PIN: 10; на провод</t>
+  </si>
+  <si>
+    <t>static.tme.eu/products_pics/4/3/d/43d49000d63b29f4ddd39b9ae26883cf/424954.jpg</t>
+  </si>
+  <si>
+    <t>www.tme.eu/ru/details/mx-503149-1000/razemy-signalnye-rastr-1-50mm/molex/503149-1000/</t>
+  </si>
+  <si>
+    <t>MX-171692-0106</t>
+  </si>
+  <si>
+    <t>Вилка; провод-плата; "мама"; Mega-Fit; 5,7мм; PIN: 6; Конф: 2x3; 23А</t>
+  </si>
+  <si>
+    <t>static.tme.eu/products_pics/0/2/5/025a1c5c7745ef6525f92e9062b39b6b/424939.jpg</t>
+  </si>
+  <si>
+    <t>www.tme.eu/ru/details/mx-171692-0106/razemy-signalnye-rastr-5-70mm/molex/171692-0106/</t>
+  </si>
+  <si>
+    <t>TFM-M4X65/DR226</t>
+  </si>
+  <si>
+    <t>Дистанцирующая стойка с резьбой; Внутр.резьба: M4; 65мм; сталь</t>
+  </si>
+  <si>
+    <t>static.tme.eu/products_pics/5/e/2/5e2cdfaad155e88dae96c532c2fabdd3/284846.jpg</t>
+  </si>
+  <si>
+    <t>www.tme.eu/ru/details/tfm-m4x65_dr226/elementy-distantsionnye-metallicheskie/dremec/226x65/</t>
+  </si>
+  <si>
+    <t>LT1767EMS8E5PBF</t>
+  </si>
+  <si>
+    <t>PMIC; преобразователь DC/DC; Uвх: 3÷25В; Uвых: 5В; MSOP8; buck</t>
+  </si>
+  <si>
+    <t>static.tme.eu/products_pics/5/3/1/531d7915b61678c8109674b14bfbf850/285547.jpg</t>
+  </si>
+  <si>
+    <t>www.tme.eu/ru/details/lt1767ems8e5pbf/reguliatory-napriazheniia-mikroskhemy-dc-dc/analog-devices-linear-technology/lt1767ems8e-5-pbf/</t>
+  </si>
+  <si>
+    <t>PF92251V1-G99-A</t>
+  </si>
+  <si>
+    <t>Вентилятор: DC; осевой; 12ВDC; 92x92x25мм; 126,75м3/ч; 45,5дБА</t>
+  </si>
+  <si>
+    <t>static.tme.eu/products_pics/5/d/e/5de68175009220d792b5fff4ea124a77/586569.jpg</t>
+  </si>
+  <si>
+    <t>www.tme.eu/ru/details/pf92251v1-g99-a/ventiliatory-dc-12v/sunon/pf92251v1-1000u-g99/</t>
+  </si>
+  <si>
+    <t>LED; 3мм; красный; 200÷300мкд; 50°; Поверхность: выпуклая</t>
+  </si>
+  <si>
+    <t>static.tme.eu/products_pics/0/3/3/03334b9c79bb8bbe0dd72f9a2fd9b472/64408.jpg</t>
+  </si>
+  <si>
+    <t>www.tme.eu/ru/details/l-934srd-e/svetodiody-tht-3mm/kingbright-electronic/</t>
+  </si>
+  <si>
+    <t>Driver; darlington,транзисторная матрица; 0,5А; 50В; Каналы: 7</t>
+  </si>
+  <si>
+    <t>static.tme.eu/products_pics/7/f/8/7f875655d065e0178d8b518f0dda4bec/201862.jpg</t>
+  </si>
+  <si>
+    <t>www.tme.eu/ru/details/uln2004a/draivery-mikroskhemy/stmicroelectronics/</t>
+  </si>
+  <si>
+    <t>MX-39-30-0060</t>
+  </si>
+  <si>
+    <t>Гнездо; провод-плата; "папа"; Mini-Fit Jr; 4,2мм; PIN: 6; THT; 13А</t>
+  </si>
+  <si>
+    <t>static.tme.eu/products_pics/1/8/5/185e65bc40581880c4f2c82958de8cfe/746.jpg</t>
+  </si>
+  <si>
+    <t>www.tme.eu/ru/details/mx-39-30-0060/razemy-signalnye-rastr-4-20mm/molex/39-30-0060/</t>
+  </si>
+  <si>
+    <t>MX-42816-0412</t>
+  </si>
+  <si>
+    <t>Вилка; провод-плата; "мама"; Серия: Mini-Fit Sr; 10мм; PIN: 4; 600В</t>
+  </si>
+  <si>
+    <t>static.tme.eu/products_pics/9/c/6/9c6840ea15823045d1db990f774bd7f3/366649.jpg</t>
+  </si>
+  <si>
+    <t>www.tme.eu/ru/details/mx-42816-0412/razemy-signalnye-rastr-10mm/molex/42816-0412/</t>
+  </si>
+  <si>
+    <t>Потенциометр: монтажный; многооборотный; 20кОм; 500мВт; THT; ±10%</t>
+  </si>
+  <si>
+    <t>static.tme.eu/products_pics/8/7/9/879f983ff716a8c18d22787ca4396591/346620.jpg</t>
+  </si>
+  <si>
+    <t>www.tme.eu/ru/details/t910w-20k/potentsiometry-tht-mnogooborotnye-3-8-dm/sr-passives/</t>
+  </si>
+  <si>
+    <t>Губцевый; для резки,миниатюрные; Дл.инструмента: 140мм</t>
+  </si>
+  <si>
+    <t>static.tme.eu/products_pics/a/8/4/a84fb90a10c7b1595db87c69d4e98dbb/281726.jpg</t>
+  </si>
+  <si>
+    <t>www.tme.eu/ru/details/tr-20-sm/kleshchi-kusachki-dlia-rezki/piergiacomi/</t>
+  </si>
+  <si>
+    <t>Оптрон; THT; Каналы: 1; Вых: транзисторный; Uизол: 5,3кВ; Uce: 70В</t>
+  </si>
+  <si>
+    <t>static.tme.eu/products_pics/d/2/5/d25df74059f2c953ae3361deb72a98d6/285339.jpg</t>
+  </si>
+  <si>
+    <t>www.tme.eu/ru/details/sfh620a-3/optrony-analogovyi-vykhod/vishay/</t>
+  </si>
+  <si>
+    <t>{'Производитель': 'MOLEX', '#Promotion': 'africa_anniversary', 'Разъем': 'вилка', 'Тип разъема': 'провод - плата', 'Вид разъемов': '"мама"', 'Серия разъема': 'KK 396', 'Шаг контактов': '3,96мм', 'Кол-во выводов': '2', 'Версия разъема': 'без контактов', 'Механический монтаж': 'на провод', 'Класс горючести': 'UL94V-2', 'Конфигурация выводов разъема': '1x2', 'Рабочее напряжение макс.': '250В', 'Дополнительная информация': 'больше товаров данной серии доступно на www.tme.eu', 'Alias': '9503021', 'Engineering PN': '2139-2A'}</t>
+  </si>
+  <si>
+    <t>{'Производитель': 'Excelitas', 'Тип фотоприемника': 'фотодиод', 'Длина волны в точке макс. чувствительности': '925нм', 'Длина волны λd': '400-1100нм', 'Светочувствительная поверхность': '21мм&lt;sup&gt;2&lt;/sup&gt;', 'Монтаж': 'THT', 'Темновой ток': '100нА', '#Common #name - #search': 'perkin elmer'}</t>
+  </si>
+  <si>
+    <t>{'Производитель': 'SUNON', 'Тип вентилятора': 'DC', 'Вид вентилятора': 'осевой', 'Напряжение питания': '12В DC', 'Размер вентилятора': '38x38x20мм', 'Потребл. мощность': '3,1Вт', 'Номинальный ток': '0,26А', 'Воздушный поток': '20,39м&lt;sup&gt;3&lt;/sup&gt;/ч', 'Уровень шума': '44дБА', 'Вид подшипника': 'шариковый', 'Сигнальный вывод': 'Типа F', 'Скорость вращения': '13000 (±10%)об./мин.', 'Вес': '27г', 'Отклонение потребляемой мощности и тока': '±15%', 'Сопротивление изоляции мин.': '10МОм', 'Материал крыльчатки': 'термопласт', 'Материал корпуса': 'термопласт', 'Класс изоляции': 'E', 'Выводы': '3 провода', 'Рабочая температура': '-10...70°C', 'Длина провода': '300мм', 'Статическое давление': '15,49мм H&lt;sub&gt;2&lt;/sub&gt;O', 'Мотор вентилятора': 'бесколлекторный, DC', 'Класс горючести': 'UL94V-0', '#Promotion': 'africa_anniversary', 'Дополнительные функции': 'автоперезапуск', 'Рабочее напряжение': '6...13,8В', 'Размер провода': '26AWG'}</t>
+  </si>
+  <si>
+    <t>{'Производитель': 'NINIGI', 'Тип переключателя': 'поворотный', 'Количество возможных положений': '6', 'Нагрузка контакта DC @R': '0,3A / 16В DC', 'Кол-во секций': '1', 'Угол поворота на позицию': '30°', 'Рабочая температура': '-20...70°C', 'Выводы': 'прямые', 'Алгоритм работы': 'BBM (non-shorting)', 'Материал контакта': 'латунь', '#Promotion': 'africa_anniversary', 'Сопротивление контакта макс.': '50мОм', 'Материал корпуса': 'сталь', 'Ресурс': '10000циклов', 'Сопротивление изоляции мин.': '100МОм', 'Вид оси': 'гладкая', 'Диаметр оси': '6мм', 'Длина оси': '12мм', 'Монтажная резьба': 'M9x0,75', 'Момент вращения': '2,9Нсм', 'Кол-во фиксированных положений': '6'}</t>
+  </si>
+  <si>
+    <t>{'Производитель': 'VISHAY', 'Тип диода': 'LED', 'Монтаж': 'SMD', 'Корпус': 'PLCC2', 'Цвет диодa LED': 'белый холодный', 'Сила света': '112...355мкд', 'Цветовая температура': '5000 (тип.)K', 'Размеры': '3,5x2,8x1,75мм', '#Promotion': 'blackpool18', 'Ток диода LED': '10мА', 'Поверхность': 'плоская', 'Рабочее напряжение': '3,3...4,2В', 'Обзор': '120°'}</t>
+  </si>
+  <si>
+    <t>{'Производитель': 'FIX&amp;FASTEN', 'Тип аксессуаров для корпусов': 'защитная кромка', 'Материал корпуса': 'полиэтилен', 'Длина': '10м', 'Цвет': 'натуральный', 'Высота': '5,2мм', 'Ширина': '4,5мм', 'Толщина панели': '1,45...1,75мм', 'Версия': 'с надрезами'}</t>
+  </si>
+  <si>
+    <t>{'Производитель': 'SEMIKRON', 'Тип модуля': 'IGBT', 'Конструкция диода': 'диод/транзистор', 'Топология': 'тормозной транзистор', 'Обратное напряжение макс.': '1,2кВ', 'Ток коллектора': '31А', 'Мощность': '7,5кВт', 'Корпус': 'MiniSKiiP® 2', 'Применение': 'преобразователь частоты', 'Электрический монтаж': 'Press-Fit', 'Монтаж': 'винтами', 'Напряжение затвор - эмиттер': '±20В', 'Ток коллектора в импульсе': '50А'}</t>
+  </si>
+  <si>
+    <t>{'Производитель': 'MEAN WELL', 'Тип блока питания': 'ИБП', 'Вид блока питания': 'модульный', 'Мощность': '49,7Вт', 'Внешние размеры': '129x98x38мм', 'Выходной ток': '3,6А', 'Характеристики блоков питания/преобразователей': 'номинальные параметры при полной нагрузке', 'Вес': '450г', 'Рабочая температура': '-20...60°C', 'Количество выходов': '1', 'Электрическое подключение': 'клеммная колодка', 'Монтаж': 'открытое исполнение', 'Защита': 'от увеличения напряжения', 'Напряжение питания': '120...370В DC', '#Promotion': 'automatics-components_promo', 'КПД': '81%', 'Вид корпуса': '903', 'Сопутствующие товары': 'DRP-03', 'Выходное напряжение': '13,8В DC'}</t>
+  </si>
+  <si>
+    <t>{'Производитель': 'POLOLU', '#Promotion': 'holidays_201812', '#Common #name - #search': 'модуль', 'Тип датчика': 'положения', 'Вид датчика': 'цифровой компас', 'Напряжение питания': '2,5...5,5В DC', 'Интерфейс': 'I2C', 'Микросхема': 'LSM6DS33', 'Диапазон измерения акселерометра': '±2, ±4, ±8, ±16g', 'Состав набора': 'разъемы', 'Диапазон измерения гироскопа': '±125, ±245, ±500, ±1000, ±2000°/с', 'Диапазон измерения магнетометра': '±4, ±8, ±12, ±16Гс', 'Дополнительные функции': 'регулятор напряжения', 'Диапазон измерения барометра': '26кПа...126кПа', 'Информация': 'Товар не являтся готовым устройством, а лишь его компонентом'}</t>
+  </si>
+  <si>
+    <t>{'Тип аксессуаров для диодов LED': 'держатель LED', 'Диаметр диода LED': '5мм', 'Материал покрытия': 'хром', 'Вид держателя LED': 'вогнутый', 'Версия держателя': 'с резиновой заглушкой', 'Диаметр монтажного отверстия': '8,2мм', '#Promotion': 'blackpool18'}</t>
+  </si>
+  <si>
+    <t>{'Производитель': 'STMicroelectronics', 'Тип микросхемы': 'driver', 'Вид микросхемы': 'транзисторная матрица', 'Выходной ток': '0,5А', 'Выходное напряжение': '50В', 'Кол-во каналов': '8', 'Монтаж': 'THT', 'Рабочая температура': '-40...105°C', 'Входное напряжение': '30В', 'Корпус': 'DIP18'}</t>
+  </si>
+  <si>
+    <t>{'Производитель': 'MEAN WELL', 'Тип блока питания': 'импульсный', 'Мощность': '480Вт', 'Выходной ток': '10А', 'Напряжение питания': '254...780В DC', 'Электрическое подключение': 'клеммная колодка', 'Монтаж': 'DIN', 'Внешние размеры': '85,5x125,2x128,5мм', 'Вес': '1,7кг', 'Количество выходов': '1', 'Рабочая температура': '-30...70°C', 'Защита': 'перенапряжения', 'КПД': '93%', 'Дополнительные функции': 'сигнализация корректного выходного напряжения (контакт NO)', 'Характеристики блоков питания/преобразователей': 'номинальные параметры при полной нагрузке', '#Promotion': 'automatics-components_promo', 'Серия': 'WDR-480', 'Вид корпуса': '984B', 'Выходное напряжение': '48...55В DC'}</t>
+  </si>
+  <si>
+    <t>{'Производитель': 'YANGJIE TECHNOLOGY', 'Тип диода': 'выпрямительный', 'Монтаж': 'THT', 'Обратное напряжение макс.': '600В', 'Прямой ток': '6А', 'Конструкция диода': 'одиночный диод', 'Характеристики полупроводниковых элементов': 'супер-быстрое переключение', 'Вид упаковки': 'лента', 'Корпус': 'R6', 'Время готовности': '35нс', 'Импульсный ток': '150А', 'Падение напряжения макс.': '1,7В'}</t>
+  </si>
+  <si>
+    <t>{'Производитель': 'OSRAM', 'Тип диода': 'ИК-передатчик', 'Длина волны λp': '940нм', 'Линза диода': 'прозрачная', 'Оптическая мощность': '80мВт', 'Монтаж': 'SMD', 'Размеры': '3,3x2,35x1,7мм', 'Ток диода LED': '100мА', '#Promotion': 'blackpool18', 'Поверхность': 'плоская', 'Рабочее напряжение': '1,5...1,8В', 'Обзор': '15°'}</t>
+  </si>
+  <si>
+    <t>{'Производитель': 'OSRAM', 'Тип диода': 'ИК-передатчик', 'Диаметр диода LED': '5мм', 'Длина волны λp': '950нм', 'Линза диода': 'черная', 'Оптическая мощность': '550мВт', 'Монтаж': 'THT', 'Ток диода LED': '100мА', '#Promotion': 'blackpool18', 'Поверхность': 'выпуклая', 'Рабочее напряжение': '1,6...1,9В', 'Обзор': '10°'}</t>
+  </si>
+  <si>
+    <t>{'Производитель': 'TE Connectivity', 'Тип реле': 'электромагнитное', 'Контакты': 'DPDT', 'Номинальное напряжение обмотки': '110В DC', 'Нагрузка контакта AC @R': '8A / 250В AC', 'Нагрузка контакта DC @R': '8A / 30В DC', 'Ток контактов макс.': '8А', 'Коммутируемое напряжение': 'макс. 400В AC', 'Исполнение реле': 'миниатюрное', 'Монтаж': 'PCB', 'Сопротивление обмотки макс.': '28,8кОм', 'Напряжение обмотки мин.': '77В DC', 'Время срабатывания': '8мс', 'Внешние размеры': '29x12,7x15,7мм', 'Время отпускания': '6мс', 'Мощность, потребляемая обмоткой': '420мВт', 'Класс защиты': 'IP67', 'Рабочая температура': '-40...85°C', 'Вес': '13г', 'Серия реле': 'RT2', 'Материал контакта': 'AgNi 90/10', '#Promotion': 'teconn_201912', 'Шаг выводов': '5мм', 'Высота': '15,7мм', 'Кол-во выводов': '8'}</t>
+  </si>
+  <si>
+    <t>{'Производитель': 'MOLEX', '#Promotion': 'africa_anniversary', 'Разъем': 'вилка', 'Тип разъема': 'провод - плата', 'Вид разъемов': '"мама"', 'Серия разъема': 'CLIK-Mate', 'Шаг контактов': '1,5мм', 'Кол-во выводов': '7', 'Версия разъема': 'без контактов', 'Механический монтаж': 'на провод', 'Фиксация разъема': 'защелка', 'Рабочая температура': '-25...85°C', 'Конфигурация выводов разъема': '1x7', 'Дополнительная информация': 'больше товаров данной серии доступно на www.tme.eu', 'Alias': '5025780700', 'Engineering PN': '502578-0700'}</t>
+  </si>
+  <si>
+    <t>{'Производитель': 'MOLEX', '#Promotion': 'africa_anniversary', 'Разъем': 'вилка', 'Тип разъема': 'провод - плата', 'Вид разъемов': '"мама"', 'Серия разъема': 'CLIK-Mate', 'Шаг контактов': '1,5мм', 'Кол-во выводов': '10', 'Версия разъема': 'без контактов', 'Механический монтаж': 'на провод', 'Фиксация разъема': 'защелка', 'Рабочая температура': '-25...85°C', 'Конфигурация выводов разъема': '2x5', 'Дополнительная информация': 'больше товаров данной серии доступно на www.tme.eu', 'Alias': '5031491000', 'Engineering PN': '503149-1000'}</t>
+  </si>
+  <si>
+    <t>{'Производитель': 'MOLEX', '#Promotion': 'africa_anniversary', 'Разъем': 'вилка', 'Тип разъема': 'провод - плата', 'Вид разъемов': '"мама"', 'Серия разъема': 'Mega-Fit', 'Шаг контактов': '5,7мм', 'Кол-во выводов': '6', 'Конфигурация выводов разъема': '2x3', 'Максимальный ток': '23А', 'Класс горючести': 'UL94V-0', 'Версия разъема': 'без контактов', 'Цвет': 'черный', 'Рабочая температура': '-40...105°C', 'Фиксация разъема': 'защелка', 'Механический монтаж': 'на провод', 'Пространственная ориентация': 'прямой', 'Дополнительная информация': 'больше товаров данной серии доступно на www.tme.eu', 'Alias': '1716920106', 'Engineering PN': '171692-0106'}</t>
+  </si>
+  <si>
+    <t>{'Производитель': 'DREMEC', 'Тип распорнои стойки': 'дистанцирующая стойка с резьбой', 'Внутренняя резьба': 'M4', 'Расстояние между платами': '65мм', 'Внешняя резьба': 'M4', 'Форма стойки': 'шестигранная', 'Материал': 'сталь', 'Материал покрытия': 'цинк', 'Резьба + Длина - #wyszukiwanie': 'M4x65', '#Promotion': 'Spacers_forbot', 'Размер ключа': '7мм', 'Дополнительная информация': 'больше товаров данной серии доступно на www.tme.eu', 'Характеристики механических элементов': 'с внутренней и внешней резьбой'}</t>
+  </si>
+  <si>
+    <t>{'Производитель': 'Analog Devices (Linear Technology)', 'Тип микросхемы': 'PMIC', 'Вид микросхемы': 'преобразователь DC/DC', 'Входное напряжение': '3...25В', 'Выходное напряжение': '5В', 'Выходной ток': '1,5А', 'Частота': '1250кГц', 'Монтаж': 'SMD', 'Корпус': 'MSOP8', 'Топология': 'buck', 'Кол-во каналов': '1'}</t>
+  </si>
+  <si>
+    <t>{'Производитель': 'SUNON', 'Тип вентилятора': 'DC', 'Вид вентилятора': 'осевой', 'Напряжение питания': '12В DC', 'Размер вентилятора': '92x92x25мм', 'Потребл. мощность': '4,44Вт', 'Номинальный ток': '0,37А', 'Воздушный поток': '126,75м&lt;sup&gt;3&lt;/sup&gt;/ч', 'Уровень шума': '45,5дБА', 'Вид подшипника': 'Vapo', 'Сигнальный вывод': 'Типа F', 'Скорость вращения': '4500об./мин.', 'Вес': '106г', 'Сопротивление изоляции мин.': '10МОм', 'Материал крыльчатки': 'термопласт', 'Материал корпуса': 'термопласт', 'Класс изоляции': 'A', 'Выводы': '3 провода', 'Рабочая температура': '-10...70°C', 'Длина провода': '305мм', 'Статическое давление': '8,89мм H&lt;sub&gt;2&lt;/sub&gt;O', 'Мотор вентилятора': 'бесколлекторный, DC', 'Класс горючести': 'UL94V-0', 'Дополнительные функции': 'автоперезапуск', 'Рабочее напряжение': '6...13,8В', 'Размер провода': '24AWG'}</t>
+  </si>
+  <si>
+    <t>{'Производитель': 'KINGBRIGHT ELECTRONIC', 'Тип диода': 'LED', 'Диаметр диода LED': '3мм', 'Цвет диодa LED': 'красный', 'Сила света': '200...300мкд', 'Поверхность': 'выпуклая', 'Длина волны λd': '660нм', 'Линза диода': 'матовая', 'Ток диода LED': '20мА', 'Монтаж': 'THT', '#Promotion': 'blackpool18', 'Рабочее напряжение': '1,85...2,5В', 'Обзор': '50°'}</t>
+  </si>
+  <si>
+    <t>{'Производитель': 'STMicroelectronics', 'Тип микросхемы': 'driver', 'Вид микросхемы': 'транзисторная матрица', 'Выходной ток': '0,5А', 'Выходное напряжение': '50В', 'Кол-во каналов': '7', 'Монтаж': 'THT', 'Рабочая температура': '-40...85°C', 'Входное напряжение': '30В', 'Корпус': 'DIP16'}</t>
+  </si>
+  <si>
+    <t>{'Производитель': 'MOLEX', '#Promotion': 'africa_anniversary', 'Разъем': 'гнездо', 'Тип разъема': 'провод - плата', 'Вид разъемов': '"папа"', 'Серия разъема': 'Mini-Fit Jr.', 'Шаг контактов': '4,2мм', 'Кол-во выводов': '6', 'Электрический монтаж': 'THT', 'Максимальный ток': '13А', 'Покрытие контакта': 'луженые', 'Класс горючести': 'UL94V-0', 'Фиксация разъема': 'защелка', 'Конфигурация выводов разъема': '2x3', 'Дополнительная информация': 'больше товаров данной серии доступно на www.tme.eu', 'Alias': '39300060', 'Engineering PN': '5569-06A2-210', 'Пространственная ориентация': 'угловой 90°'}</t>
+  </si>
+  <si>
+    <t>{'Производитель': 'MOLEX', '#Promotion': 'africa_anniversary', 'Разъем': 'вилка', 'Тип разъема': 'провод - плата', 'Вид разъемов': '"мама"', 'Серия разъема': 'Mini-Fit Sr.', 'Шаг контактов': '10мм', 'Кол-во выводов': '4', 'Alias': '428160412', 'Engineering PN': '42816-0412', 'Номинальное напряжение': '600В', 'Механический монтаж': 'на провод', 'Рабочая температура': '-40...105°C', 'Версия разъема': 'без контактов'}</t>
+  </si>
+  <si>
+    <t>{'Производитель': 'SR PASSIVES', 'Тип потенциометра': 'монтажный', 'Вид потенциометра': 'многооборотный', 'Сопротивление': '20кОм', 'Мощность': '500мВт', 'Монтаж': 'THT', 'Погрешность': '±10%', 'Характеристика': 'линейная', 'Материал дорожки': 'металлокерамический', 'Рабочая температура': '-55...125°C', 'Стандарт потенциометра': '3/8"', 'Температурный коэффициент': '100ppm/°C', 'Размеры корпуса': '10x9,5x4,8мм', 'Шаг выводов': '2,5мм', 'Количество оборотов механич.': '28', 'Аналоги других производителей': 'T93YA', 'Регулировка': 'вертикальная', 'Ресурс': '200циклов'}</t>
+  </si>
+  <si>
+    <t>{'Производитель': 'PIERGIACOMI', 'Тип инструмента': 'губцевый', 'Вид губцевый': 'миниатюрные', 'Характеристики щипцов/ножей': 'ручки с двухкомпонентными накладками эргономичной формы с противоскользящим верхним слоем', 'Диапазон резки': 'медная проволока диаметром до 0,8мм', 'Длина инструмента': '140мм', '#Promotion': 'electricians_day_201906'}</t>
+  </si>
+  <si>
+    <t>{'Производитель': 'VISHAY', 'Тип полупроводникового элемента': 'оптрон', 'Монтаж': 'THT', 'Кол-во каналов': '1', 'Вид выхода': 'транзисторный', 'Напряжение изоляции': '5,3кВ', 'CTR@If': '4.5%@1mA', 'Напряжение коллектор-эмиттер': '70В', 'Корпус': 'DIP4', 'Время включения': '3мкс', 'Время выключения': '2,3мкс'}</t>
+  </si>
+  <si>
+    <t>www.tme.eu/Document/c553b43254396d60e30fc0ad52ecb64e/9503101.pdf</t>
+  </si>
+  <si>
+    <t>www.tme.eu/Document/7e50f44c383244e46c42b0ac55270bde/3.pdf</t>
+  </si>
+  <si>
+    <t>www.tme.eu/Document/d933930c5a9713c213691f8bbfc0033c/PMD1238PKB1AF.pdf</t>
+  </si>
+  <si>
+    <t>www.tme.eu/Document/554a6f28fc8c704a6220b5eddccd9f34/SR17A1620F69N_DTE.pdf</t>
+  </si>
+  <si>
+    <t>www.tme.eu/Document/25492a798f338a61c91ed67f6fe64428/VLMW41R1T1-7K8L-08-DTE.pdf</t>
+  </si>
+  <si>
+    <t>www.tme.eu/Document/eada3f842acb4e4fa3a63ef1cbb6d29f/KG-010.pdf</t>
+  </si>
+  <si>
+    <t>www.tme.eu/Document/1cb1fd4f4f1b21d6215cc105030095bf/SKiiP23NAB126V1.pdf</t>
+  </si>
+  <si>
+    <t>www.tme.eu/Document/c6ad60a54b368fbe5896a4446dd99732/INB-ZAS-IMP-RU.pdf</t>
+  </si>
+  <si>
+    <t>www.tme.eu/Document/2e00ebb85c11ad4f6f7cfcae7e101143/ulq2803.pdf</t>
+  </si>
+  <si>
+    <t>www.tme.eu/Document/72fc6877a395baae40163dbe9cc3995a/INB-ZAS-DIN-RU.pdf</t>
+  </si>
+  <si>
+    <t>www.tme.eu/Document/3084130a016246a43a5d85e56be18eaf/SF61G_SER.pdf</t>
+  </si>
+  <si>
+    <t>www.tme.eu/Document/8779098747e6734be0de04691ff3714c/SFH4645.pdf</t>
+  </si>
+  <si>
+    <t>www.tme.eu/Document/cfcc0d8a6669b62a22b9ffa1b7af2799/SFH4544.pdf</t>
+  </si>
+  <si>
+    <t>www.tme.eu/Document/6875713b1f30ff5ff87e2fe31c7f0235/5025780200_sd.pdf</t>
+  </si>
+  <si>
+    <t>www.tme.eu/Document/c33cc2020ff92d2ac74457cd277b7833/5031490800_sd.pdf</t>
+  </si>
+  <si>
+    <t>www.tme.eu/Document/0498fc69ae72e4fa7ad609f215554d1e/Mega-Fit MOLEX.txt</t>
+  </si>
+  <si>
+    <t>www.tme.eu/Document/451757bfa0cf89650334b0f101e3f2bd/Dremec_13.pdf</t>
+  </si>
+  <si>
+    <t>www.tme.eu/Document/cfc3853de0a94ff4921db09d0d2742cc/lt1767.pdf</t>
+  </si>
+  <si>
+    <t>www.tme.eu/Document/669ceba5964765359ee39d8b0b038d57/PF92251V1-1000U-G99 D09034460G-00.pdf</t>
+  </si>
+  <si>
+    <t>www.tme.eu/Document/4cef7142f12e205d589ffea28391b2ba/Application Notes.pdf</t>
+  </si>
+  <si>
+    <t>www.tme.eu/Document/59932c7719cf25b6baad20a181aaae88/ULN200x.pdf</t>
+  </si>
+  <si>
+    <t>www.tme.eu/Document/dc1bd2993ed47b1262da95547174c200/MX-39-30-0060.pdf</t>
+  </si>
+  <si>
+    <t>www.tme.eu/Document/1f6b35bb6f23de72d8f577f3719e1057/mx42816.pdf</t>
+  </si>
+  <si>
+    <t>www.tme.eu/Document/46e9ecf29426285f0ed14cb1dbb4a9ca/SR_Passives-T910.pdf</t>
+  </si>
+  <si>
+    <t>www.tme.eu/Document/3283c0440d53f053bb6c880de2756158/TR-20-SM.pdf</t>
+  </si>
+  <si>
+    <t>www.tme.eu/Document/dee9b38586ed8839c054de1e912b26dd/SFH6206-1.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -192,13 +620,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -477,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A48"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,244 +924,749 @@
     <col min="3" max="3" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1">
+        <v>5.2999999999999998E-4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2">
+        <v>6.0300000000000002E-4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3">
+        <v>2.86E-2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>7.28E-3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5">
+        <v>9.6000000000000002E-5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D6">
+        <v>0.153</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8">
+        <v>0.42909999999999998</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9">
+        <v>2.5300000000000001E-3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11">
+        <v>1.24E-3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" t="s">
+        <v>142</v>
+      </c>
+      <c r="H11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12">
+        <v>1.649</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13">
+        <v>1.9E-3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" t="s">
+        <v>145</v>
+      </c>
+      <c r="H14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15">
+        <v>3.0400000000000002E-4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" t="s">
+        <v>146</v>
+      </c>
+      <c r="H15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s">
+        <v>148</v>
+      </c>
+      <c r="H17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18">
+        <v>4.2999999999999999E-4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" t="s">
+        <v>149</v>
+      </c>
+      <c r="H18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" t="s">
+        <v>150</v>
+      </c>
+      <c r="H19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20">
+        <v>2.06E-2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" t="s">
+        <v>151</v>
+      </c>
+      <c r="H20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21">
+        <v>2.4000000000000001E-5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" t="s">
+        <v>152</v>
+      </c>
+      <c r="H21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22">
+        <v>0.10920000000000001</v>
+      </c>
+      <c r="E22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" t="s">
+        <v>153</v>
+      </c>
+      <c r="H22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" t="s">
+        <v>154</v>
+      </c>
+      <c r="H23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24">
+        <v>1.01E-3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" t="s">
+        <v>155</v>
+      </c>
+      <c r="H24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25">
+        <v>2.3E-3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" t="s">
+        <v>156</v>
+      </c>
+      <c r="H25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26">
+        <v>1.074E-2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" t="s">
+        <v>157</v>
+      </c>
+      <c r="H26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27">
+        <v>7.6000000000000004E-4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27" t="s">
+        <v>125</v>
+      </c>
+      <c r="G27" t="s">
+        <v>158</v>
+      </c>
+      <c r="H27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28">
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28" t="s">
+        <v>159</v>
+      </c>
+      <c r="H28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>45</v>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F29" t="s">
+        <v>131</v>
+      </c>
+      <c r="G29" t="s">
+        <v>160</v>
+      </c>
+      <c r="H29" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/productdata.xlsx
+++ b/productdata.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -54,12 +54,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="0" name="Обычный" xfId="0"/>
@@ -324,7 +323,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -336,1137 +335,1890 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="16.28515625"/>
-    <col customWidth="1" max="2" min="2" width="12.5703125"/>
-    <col customWidth="1" max="3" min="3" width="23.85546875"/>
+    <col customWidth="1" max="1" min="1" style="2" width="16.28515625"/>
+    <col customWidth="1" max="2" min="2" style="2" width="12.5703125"/>
+    <col customWidth="1" max="3" min="3" style="2" width="23.85546875"/>
+    <col customWidth="1" max="7" min="7" style="3" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>09-50-3021</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>1N4007-DC</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>MX-2139-2A</t>
+          <t>1N4007-DC</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Вилка; провод-плата; "мама"; KK 396; 3,96мм; PIN: 2; без контактов</t>
+          <t>Диод: выпрямительный; THT; 1кВ; 1А; Упаковка: Ammo Pack; DO41</t>
         </is>
       </c>
       <c r="D1" t="n">
-        <v>0.00053</v>
+        <v>0.00028</v>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>static.tme.eu/products_pics/a/d/c/adc7a7c41eb9a5687179d7eef91a53a8/338104.jpg</t>
+          <t>static.tme.eu/products_pics/f/c/8/fc82c3993bd1e575e9e7935e29e432c3/56940.jpg</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>www.tme.eu/ru/details/mx-2139-2a/razemy-signalnye-rastr-3-96mm/molex/09-50-3021/</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>{'Производитель': 'MOLEX', '#Promotion': 'africa_anniversary', 'Разъем': 'вилка', 'Тип разъема': 'провод - плата', 'Вид разъемов': '"мама"', 'Серия разъема': 'KK 396', 'Шаг контактов': '3,96мм', 'Кол-во выводов': '2', 'Версия разъема': 'без контактов', 'Механический монтаж': 'на провод', 'Класс горючести': 'UL94V-2', 'Конфигурация выводов разъема': '1x2', 'Рабочее напряжение макс.': '250В', 'Дополнительная информация': 'больше товаров данной серии доступно на www.tme.eu', 'Alias': '9503021', 'Engineering PN': '2139-2A'}</t>
+          <t>www.tme.eu/ru/details/1n4007-dc/universalnye-diody-tht/dc-components/1n4007/</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип диода': 'выпрямительный', 'Монтаж': 'THT', 'Обратное напряжение макс.': '1кВ', 'Прямой ток': '1А', 'Конструкция диода': 'одиночный диод', 'Вид упаковки': 'Ammo Pack', 'Корпус': 'DO41', 'Импульсный ток': '30А', 'Падение напряжения макс.': '1,1В'}</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>www.tme.eu/Document/c553b43254396d60e30fc0ad52ecb64e/9503101.pdf</t>
+          <t>www.tme.eu/Document/b9a3e8c499478bdb2cb9098c529c9361/1N4001_ser.pdf</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>VTP4085H</t>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>NE555D</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>VTP4085H</t>
+          <t>NE555D</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Фотодиод; 925нм; 400-1100нм; Монтаж: THT; 100нА</t>
+          <t>Периферийная микросхема; нестабильный,моностабильная,часы RC</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.000603</v>
+        <v>6.7e-05</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>static.tme.eu/products_pics/5/2/7/5272851219b4bcbf50385c044b80ce2c/361407.jpg</t>
+          <t>static.tme.eu/products_pics/4/8/a/48a33ccfb5a851d5982dcdda0776f7ac/285338.jpg</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>www.tme.eu/ru/details/vtp4085h/fotodiody/excelitas/</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>{'Производитель': 'Excelitas', 'Тип фотоприемника': 'фотодиод', 'Длина волны в точке макс. чувствительности': '925нм', 'Длина волны λd': '400-1100нм', 'Светочувствительная поверхность': '21мм&lt;sup&gt;2&lt;/sup&gt;', 'Монтаж': 'THT', 'Темновой ток': '100нА', '#Common #name - #search': 'perkin elmer'}</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>www.tme.eu/Document/7e50f44c383244e46c42b0ac55270bde/3.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>PMD1238PKB1-A.(2).F.GN</t>
+          <t>www.tme.eu/ru/details/ne555d/mikroskhemy-watchdog-i-reset/texas-instruments/</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип микросхемы': 'периферийная микросхема', 'Вид микросхемы': 'часы RC', 'Частота': '500кГц', 'Напряжение питания': '4,5...16В DC', 'Корпус': 'SO8', 'Ток питания DC': '10мА', 'Монтаж': 'SMD', 'Рабочая температура': '0...70°C', 'Вид упаковки': 'туба', 'Кол-во каналов': '1'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>VUM24-05N</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PMD1238PKB1AF</t>
+          <t>VUM24-05N</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Вентилятор: DC; осевой; 12ВDC; 38x38x20мм; 20,39м3/ч; 44дБА; 26AWG</t>
+          <t>Модуль; диод/транзистор; 500В; 24А; V1-B-Pack; Ugs: ±20В; винтами</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.0286</v>
+        <v>0.0471</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>static.tme.eu/products_pics/3/d/b/3dbb5a0071d20d3ee13a7810da56ffd9/423955.jpg</t>
+          <t>static.tme.eu/products_pics/0/2/2/0220bb819b9637a92649c24ad14225f6/408702.jpg</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>www.tme.eu/ru/details/pmd1238pkb1af/ventiliatory-dc-12v/sunon/pmd1238pkb1-a-2-f-gn/</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>{'Производитель': 'SUNON', 'Тип вентилятора': 'DC', 'Вид вентилятора': 'осевой', 'Напряжение питания': '12В DC', 'Размер вентилятора': '38x38x20мм', 'Потребл. мощность': '3,1Вт', 'Номинальный ток': '0,26А', 'Воздушный поток': '20,39м&lt;sup&gt;3&lt;/sup&gt;/ч', 'Уровень шума': '44дБА', 'Вид подшипника': 'шариковый', 'Сигнальный вывод': 'Типа F', 'Скорость вращения': '13000 (±10%)об./мин.', 'Вес': '27г', 'Отклонение потребляемой мощности и тока': '±15%', 'Сопротивление изоляции мин.': '10МОм', 'Материал крыльчатки': 'термопласт', 'Материал корпуса': 'термопласт', 'Класс изоляции': 'E', 'Выводы': '3 провода', 'Рабочая температура': '-10...70°C', 'Длина провода': '300мм', 'Статическое давление': '15,49мм H&lt;sub&gt;2&lt;/sub&gt;O', 'Мотор вентилятора': 'бесколлекторный, DC', 'Класс горючести': 'UL94V-0', '#Promotion': 'africa_anniversary', 'Дополнительные функции': 'автоперезапуск', 'Рабочее напряжение': '6...13,8В', 'Размер провода': '26AWG'}</t>
+          <t>www.tme.eu/ru/details/vum24-05n/tranzistornye-moduli-mosfet/ixys/</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип модуля': 'транзисторный', 'Конструкция диода': 'диод/транзистор', 'Напряжение сток-исток': '500В', 'Ток стока': '24А', 'Корпус': 'V1-B-Pack', 'Топология': 'тормозной транзистор', 'Монтаж': 'винтами', 'Электрический монтаж': 'коннекторы FASTON', 'Сопротивление в открытом состоянии': '120мОм', 'Ток стока в импульсном режиме': '95А', 'Рассеиваемая мощность': '170Вт', 'Заряд затвора': '350нC', 'Напряжение затвор-исток': '±20В'}</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>www.tme.eu/Document/78a82a4c563b234694f3bba2d3281ea2/High_Air_Flow_Series_e_2012.pdf</t>
+          <t>www.tme.eu/Document/fd7f4c65604a52c1c2e7050eec874898/VUM24-05N.pdf</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>SR17A1620F69N</t>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>OPT-LY-04FL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SR17A1620F69N</t>
+          <t>OPT-LY04FL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Переключатель: поворотный; Положения: 6; 0,3A/16ВDC; 30°; -20÷70°C</t>
+          <t>Инструмент: для опрессовки; 0,5÷1мм2; 20AWG÷18AWG</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.00728</v>
+        <v>0.5699</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>static.tme.eu/products_pics/4/f/4/4f4c3b24c14c9b50fb37d0442c936216/463798.jpg</t>
+          <t>static.tme.eu/products_pics/6/7/3/673972bba7e2b96d74e24df76fb4a91c/471986.jpg</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>www.tme.eu/ru/details/sr17a1620f69n/perekliuchateli-oborotnye/ninigi/</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>{'Производитель': 'NINIGI', 'Тип переключателя': 'поворотный', 'Количество возможных положений': '6', 'Нагрузка контакта DC @R': '0,3A / 16В DC', 'Кол-во секций': '1', 'Угол поворота на позицию': '30°', 'Рабочая температура': '-20...70°C', 'Выводы': 'прямые', 'Алгоритм работы': 'BBM (non-shorting)', 'Материал контакта': 'латунь', '#Promotion': 'africa_anniversary', 'Сопротивление контакта макс.': '50мОм', 'Материал корпуса': 'сталь', 'Ресурс': '10000циклов', 'Сопротивление изоляции мин.': '100МОм', 'Вид оси': 'гладкая', 'Диаметр оси': '6мм', 'Длина оси': '12мм', 'Монтажная резьба': 'M9x0,75', 'Момент вращения': '2,9Нсм', 'Кол-во фиксированных положений': '6'}</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>www.tme.eu/Document/88b118568280ff5ee439306dcb657dd4/SR17A1620F69N_DRAWING.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>VLMW41R1T1-7K8L-08</t>
+          <t>www.tme.eu/ru/details/opt-ly04fl/zazhimnye-ust-va-kabelnykh-nakonechnikov/opt/opt-ly-04fl/</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип инструмента': 'для опрессовки', 'Назначение инструмента': 'угловые кабельные наконечники 90° без изоляции', 'Сечение провода': '0,5...1мм&lt;sup&gt;2&lt;/sup&gt;', 'Размер провода': '20AWG...18AWG'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GSM90A12-P1M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>VLMW41R1T1-7K8L-08</t>
+          <t>GSM90A12-P1M</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LED; SMD; 3528,PLCC2; белый холодный; 112÷355мкд; 5000(тип.)K</t>
+          <t>Блок питания: импульсный; 12ВDC; 6,67А; Вых: 5,5/2,5; 80Вт; 88%</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9.6e-05</v>
+        <v>0.4637</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>static.tme.eu/products_pics/b/6/b/b6bd106244234a961251c16ee584774e/492739.jpg</t>
+          <t>static.tme.eu/products_pics/e/a/2/ea24e9403a74f9a1338252945f89309a/464883.jpg</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>www.tme.eu/ru/details/vlmw41r1t1-7k8l-08/svetodiody-smd-belye/vishay/</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>{'Производитель': 'VISHAY', 'Тип диода': 'LED', 'Монтаж': 'SMD', 'Корпус': 'PLCC2', 'Цвет диодa LED': 'белый холодный', 'Сила света': '112...355мкд', 'Цветовая температура': '5000 (тип.)K', 'Размеры': '3,5x2,8x1,75мм', '#Promotion': 'blackpool18', 'Ток диода LED': '10мА', 'Поверхность': 'плоская', 'Рабочее напряжение': '3,3...4,2В', 'Обзор': '120°'}</t>
+          <t>www.tme.eu/ru/details/gsm90a12-p1m/bloki-pitaniia-nastolnye/mean-well/</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип блока питания': 'импульсный', 'Ток выхода макс.': '6,67А', 'Вид выходного разъема': '5,5/2,5', 'Мощность': '80Вт', 'Вид корпуса': 'настольный', 'Вид блока питания': 'стабилизатор напряжения', 'Состав набора': 'без шнура питания', 'Длина выходного провода': '1м', 'Внешние размеры': '145x60x32мм', 'Рабочая температура': '-30...70°C', 'Защита': 'от перенапряжения', '#Common #name - #search': 'настольный', 'Соответствуют норме': 'Energy efficiency Level VI', 'Вид входного разъема': 'IEC C14', 'Версия разъема': 'прямой', 'КПД': '88%', 'Полярность': 'плюс в центре', 'Напряжение питания': '113...370В DC', 'Применение': 'медицинская аппаратура', 'Выходное напряжение': '12В DC'}</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>www.tme.eu/Document/25492a798f338a61c91ed67f6fe64428/VLMW41R1T1-7K8L-08-DTE.pdf</t>
+          <t>www.tme.eu/Document/a49b9e6dd8f7f0fcd9388f7568b190e4/INB-MN-ADAPTOR-RU.pdf</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>KG-016</t>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PREMIUM 111 19MMX20M BLACK</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>KG-016</t>
+          <t>PLH-P111-19-20/BK</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Защитная кромка; полиэтилен; L: 10м; натуральный; H: 5,2мм; W: 4,5мм</t>
+          <t>Лента: электроизоляционная; W: 19мм; L: 20м; D: 0,18мм; черный; 260%</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.153</v>
+        <v>0.09279999999999999</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>static.tme.eu/products_pics/8/e/b/8eb8e34502421cab59eaac4e2125b4b1/28137.jpg</t>
+          <t>static.tme.eu/products_pics/6/8/2/68240fc5a5888f45ed2accb44ffde5c0/612586.jpg</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>www.tme.eu/ru/details/kg-016/zashchitnye-nasadki-na-kraia/fix-fasten/</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>{'Производитель': 'FIX&amp;FASTEN', 'Тип аксессуаров для корпусов': 'защитная кромка', 'Материал корпуса': 'полиэтилен', 'Длина': '10м', 'Цвет': 'натуральный', 'Высота': '5,2мм', 'Ширина': '4,5мм', 'Толщина панели': '1,45...1,75мм', 'Версия': 'с надрезами'}</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>www.tme.eu/Document/eada3f842acb4e4fa3a63ef1cbb6d29f/KG-010.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>SKIIP 23NAB126V1 M20</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>SKIIP23NAB126V1</t>
+          <t>www.tme.eu/ru/details/plh-p111-19-20_bk/lenty-izoliatsionnye/plymouth/premium-111-19mmx20m-black/</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип ленты': 'электроизоляционная', 'Ширина': '19мм', 'Длина': '20м', 'Толщина': '0,18мм', 'Цвет': 'черный', 'Вид клея': 'каучуковый', 'Материал носителя': 'пленка ПВХ', 'Применение ленты': 'изоляция электрических проводов и кабелей', 'Рабочая температура': '-10...105°C', 'Удлинение при разрыве': '260%', 'Адгезия к стали': '2,2Н/cм', 'Характеристики лент': 'эластичная', 'Устойчивы к': 'УФ-излучению', 'Диэлектрическая прочность': '8кВ'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ЖОПА</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Модуль: IGBT; диод/транзистор; 3-фазный мост IGBT; Urmax: 1,2кВ</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>static.tme.eu/products_pics/b/8/8/b88b516c6fd7e20a7f255335f0fd83ea/672271.jpg</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>www.tme.eu/ru/details/skiip23nab126v1/moduli-igbt/semikron/skiip-23nab126v1-m20/</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>{'Производитель': 'SEMIKRON', 'Тип модуля': 'IGBT', 'Конструкция диода': 'диод/транзистор', 'Топология': 'тормозной транзистор', 'Обратное напряжение макс.': '1,2кВ', 'Ток коллектора': '31А', 'Мощность': '7,5кВт', 'Корпус': 'MiniSKiiP® 2', 'Применение': 'преобразователь частоты', 'Электрический монтаж': 'Press-Fit', 'Монтаж': 'винтами', 'Напряжение затвор - эмиттер': '±20В', 'Ток коллектора в импульсе': '50А'}</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>www.tme.eu/Document/1cb1fd4f4f1b21d6215cc105030095bf/SKiiP23NAB126V1.pdf</t>
+          <t>Артикула нет на TME</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>SCP-50-12</t>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>VLMW1500-GS08</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SCP-50-12</t>
+          <t>VLMW1500-GS08</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Блок питания: ИБП; модульный; 49,7Вт; 13,8ВDC; 129x98x38мм; 3,6А</t>
+          <t>LED; SMD; 0402; белый; 45÷180мкд; 65°; 5мА; 2,65÷3,05В</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.4291</v>
+        <v>0.0001</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>static.tme.eu/products_pics/e/8/4/e846528474d9805d9a18c058c84e8d02/206779.jpg</t>
+          <t>static.tme.eu/products_pics/3/5/0/35030a3c2879da88a43558958b1e6a69/520930.jpg</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>www.tme.eu/ru/details/scp-50-12/bloki-pitaniia-dlia-vstraivaniia/mean-well/</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>{'Производитель': 'MEAN WELL', 'Тип блока питания': 'ИБП', 'Вид блока питания': 'модульный', 'Мощность': '49,7Вт', 'Внешние размеры': '129x98x38мм', 'Выходной ток': '3,6А', 'Характеристики блоков питания/преобразователей': 'номинальные параметры при полной нагрузке', 'Вес': '450г', 'Рабочая температура': '-20...60°C', 'Количество выходов': '1', 'Электрическое подключение': 'клеммная колодка', 'Монтаж': 'открытое исполнение', 'Защита': 'от увеличения напряжения', 'Напряжение питания': '120...370В DC', '#Promotion': 'automatics-components_promo', 'КПД': '81%', 'Вид корпуса': '903', 'Сопутствующие товары': 'DRP-03', 'Выходное напряжение': '13,8В DC'}</t>
+          <t>www.tme.eu/ru/details/vlmw1500-gs08/svetodiody-smd-belye/vishay/</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип диода': 'LED', 'Монтаж': 'SMD', 'Корпус': '0402', 'Цвет диодa LED': 'белый', 'Сила света': '45...180мкд', 'Размеры': '1x0,5x0,35мм', 'Ток диода LED': '5мА', 'Хроматические координаты': 'x: 0.304; y: 0.3', 'Поверхность': 'плоская', 'Рабочее напряжение': '2,65...3,05В', 'Обзор': '65°'}</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>www.tme.eu/Document/c6ad60a54b368fbe5896a4446dd99732/INB-ZAS-IMP-RU.pdf</t>
+          <t>www.tme.eu/Document/71274733fa94e88759ee47d48ff148f8/VLMW1500-GS08.pdf</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>ALTIMU-10 V5</t>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HSG-70-48</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>POLOLU-2739</t>
+          <t>HSG-70-48</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Датчик: положения; 2,5÷5,5ВDC; I2C; LIS3MDL,LPS25H,LSM6DS33</t>
+          <t>Блок питания: импульсный; LED; 72Вт; 48ВDC; 0,9÷1,5А; 90÷305ВAC</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.00253</v>
+        <v>0.802</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>static.tme.eu/products_pics/a/9/b/a9b2dd2c060afe3a66e9976681f00b71/564792.jpg</t>
+          <t>static.tme.eu/products_pics/d/6/9/d695de26f7564e2c2670645117bb948f/340943.jpg</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>www.tme.eu/ru/details/pololu-2739/datchiki-polozheniia/pololu/altimu-10-v5/</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>{'Производитель': 'POLOLU', '#Promotion': 'holidays_201812', '#Common #name - #search': 'модуль', 'Тип датчика': 'положения', 'Вид датчика': 'цифровой компас', 'Напряжение питания': '2,5...5,5В DC', 'Интерфейс': 'I2C', 'Микросхема': 'LSM6DS33', 'Диапазон измерения акселерометра': '±2, ±4, ±8, ±16g', 'Состав набора': 'разъемы', 'Диапазон измерения гироскопа': '±125, ±245, ±500, ±1000, ±2000°/с', 'Диапазон измерения магнетометра': '±4, ±8, ±12, ±16Гс', 'Дополнительные функции': 'регулятор напряжения', 'Диапазон измерения барометра': '26кПа...126кПа', 'Информация': 'Товар не являтся готовым устройством, а лишь его компонентом'}</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>RTM-5021-CHROM</t>
+          <t>www.tme.eu/ru/details/hsg-70-48/bloki-pitaniia-dlia-led/mean-well/</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип блока питания': 'импульсный', 'Применение': 'LED', 'Вид блока питания': 'CV+CC', 'Мощность': '72Вт', 'Выходное напряжение': '48В DC', 'Выходной ток': '0,9...1,5А', 'Напряжение питания': '127...431В DC', 'Класс защиты': 'IP65', 'Внешние размеры': '127,2x90x38,8мм', 'Характеристики блоков питания/преобразователей': 'номинальные параметры при полной нагрузке', 'Защита': 'от увеличения напряжения', 'Вес': '760г', 'Рабочая температура': '-40...70°C', 'Электрическое подключение': 'провода 300мм', 'Количество выходов': '1', 'Дополнительные функции': 'регулировка выходного тока', 'Серия': 'HSG-70', 'КПД': '90%'}</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>www.tme.eu/Document/8f6b9eb035fb2946c20da9fe547dba90/INB-MN-LED-RU.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>RID-125-1224</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>RTM-5021-CHROM</t>
+          <t>RID-125-1224</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Держатель LED; 5мм; хром; вогнутый; с резиновой заглушкой</t>
+          <t>Блок питания: импульсный; модульный; 133,2Вт; 12ВDC; 199x98x38мм</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.0035</v>
+        <v>0.6371</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>static.tme.eu/products_pics/3/b/f/3bf746acf7bafb655ac88faefb1b5461/374462.jpg</t>
+          <t>static.tme.eu/products_pics/e/7/f/e7fb06cddaa35adfeca9afd3924affcb/303747.jpg</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>www.tme.eu/ru/details/rtm-5021-chrom/patrony/</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>{'Тип аксессуаров для диодов LED': 'держатель LED', 'Диаметр диода LED': '5мм', 'Материал покрытия': 'хром', 'Вид держателя LED': 'вогнутый', 'Версия держателя': 'с резиновой заглушкой', 'Диаметр монтажного отверстия': '8,2мм', '#Promotion': 'blackpool18'}</t>
+          <t>www.tme.eu/ru/details/rid-125-1224/bloki-pitaniia-dlia-vstraivaniia/mean-well/</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип блока питания': 'импульсный', 'Вид блока питания': 'модульный', 'Мощность': '133,2Вт', 'Внешние размеры': '199x98x38мм', 'Выходное напряжение 2': '24В DC', 'Выходной ток': '3,7 (1...7)А', 'Ток на выходе 2': '3,7 (0,4...5)А', 'Характеристики блоков питания/преобразователей': 'изолированный выход и заземление', 'Вес': '700г', 'Рабочая температура': '-25...70°C', 'Количество выходов': '2', 'Электрическое подключение': 'клеммная колодка', 'Монтаж': 'открытое исполнение', 'Защита': 'от увеличения напряжения', 'Напряжение питания': '248...373В DC', 'КПД': '85%', 'Серия': 'RID-125', 'Вид корпуса': '902A', 'Выходное напряжение': '12В DC'}</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>www.tme.eu/Document/ee6f0e6a23c81f0c481af689425f21b2/INB-MN-ENCLOSED-RU.pdf</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>ULQ2803A</t>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>RG240128B-BIW-V</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ULQ2803A</t>
+          <t>RG240128B-BIW-V</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Driver; darlington,транзисторная матрица; 0,5А; 50В; Каналы: 8</t>
+          <t>Дисплей: LCD; графический; 240x128; STN Negative; голубой; LED</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.00124</v>
+        <v>0.1835</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>static.tme.eu/products_pics/3/0/d/30d53284f17bcf109c5d334b1dbb0727/285539.jpg</t>
+          <t>static.tme.eu/products_pics/c/1/4/c14588a6b4dd8aea0ea73bd09f497a52/444422.jpg</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>www.tme.eu/ru/details/ulq2803a/draivery-mikroskhemy/stmicroelectronics/</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>{'Производитель': 'STMicroelectronics', 'Тип микросхемы': 'driver', 'Вид микросхемы': 'транзисторная матрица', 'Выходной ток': '0,5А', 'Выходное напряжение': '50В', 'Кол-во каналов': '8', 'Монтаж': 'THT', 'Рабочая температура': '-40...105°C', 'Входное напряжение': '30В', 'Корпус': 'DIP18'}</t>
+          <t>www.tme.eu/ru/details/rg240128b-biw-v/displei-lcd-graficheskie/raystar-optronics/</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип дисплея': 'LCD', 'Вид дисплея': 'графический', 'Разрешение матрицы': '240x128', 'Технология индикатора': 'STN Negative', 'Цвет фона': 'голубой', 'Размеры': '144x104x14,3мм', 'Размер окна (выс. х шир.)': '114x64мм', 'Подсветка': 'LED', 'Цвет подсветки': 'белый', 'Вид контроллера': 'RA6963', 'Кол-во выводов': '20', 'Конфигурация выводов разъема': '1x20', 'Напряжение питания': '3...5,5В DC', 'Шаг контактов': '2,54мм'}</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>www.tme.eu/Document/2e00ebb85c11ad4f6f7cfcae7e101143/ulq2803.pdf</t>
+          <t>www.tme.eu/Document/fd0f5c08ed6f8621c0f022007942f58e/RG240128B-BIW-V.pdf</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>WDR-480-48</t>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HAC0251S4-000U-999</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WDR-480-48</t>
+          <t>HAC0251S4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Блок питания: импульсный; 480Вт; 48ВDC; 48÷55ВDC; 10А; 180÷550ВAC</t>
+          <t>Вентилятор: DC; осевой; 12ВDC; 120x120x25мм; 93,5м3/ч; 29,6дБА</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.649</v>
+        <v>0.1007</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>static.tme.eu/products_pics/3/3/c/33c3235af96f4db2c8837262c86fe4fc/375150.jpg</t>
+          <t>static.tme.eu/products_pics/1/c/4/1c4f6493899f3d28da59a97ab5c64830/413886.jpg</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>www.tme.eu/ru/details/wdr-480-48/bloki-pitaniia-na-din-reiku/mean-well/</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>{'Производитель': 'MEAN WELL', 'Тип блока питания': 'импульсный', 'Мощность': '480Вт', 'Выходной ток': '10А', 'Напряжение питания': '254...780В DC', 'Электрическое подключение': 'клеммная колодка', 'Монтаж': 'DIN', 'Внешние размеры': '85,5x125,2x128,5мм', 'Вес': '1,7кг', 'Количество выходов': '1', 'Рабочая температура': '-30...70°C', 'Защита': 'перенапряжения', 'КПД': '93%', 'Дополнительные функции': 'сигнализация корректного выходного напряжения (контакт NO)', 'Характеристики блоков питания/преобразователей': 'номинальные параметры при полной нагрузке', '#Promotion': 'automatics-components_promo', 'Серия': 'WDR-480', 'Вид корпуса': '984B', 'Выходное напряжение': '48...55В DC'}</t>
+          <t>www.tme.eu/ru/details/hac0251s4/ventiliatory-dc-12v/sunon/hac0251s4-000u-999/</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип вентилятора': 'DC', 'Вид вентилятора': 'осевой', 'Напряжение питания': '12В DC', 'Размер вентилятора': '120x120x25мм', 'Потребл. мощность': '1,9Вт', 'Номинальный ток': '0,155А', 'Воздушный поток': '93,5м&lt;sup&gt;3&lt;/sup&gt;/ч', 'Уровень шума': '29,6дБА', 'Вид подшипника': 'скольжения', 'Скорость вращения': '1600 (±10%)об./мин.', 'Вес': '99г', 'Отклонение потребляемой мощности и тока': '±15%', 'Сопротивление изоляции мин.': '10МОм', 'Материал крыльчатки': 'термопласт', 'Материал корпуса': 'термопласт', 'Класс изоляции': 'A', 'Выводы': '2 провода', 'Рабочая температура': '-10...70°C', 'Длина провода': '330мм', 'Статическое давление': '1,52мм H&lt;sub&gt;2&lt;/sub&gt;O', 'Мотор вентилятора': 'бесколлекторный, DC', 'Класс горючести': 'UL94V-0', 'Рабочее напряжение': '4,5...13,8В', 'Размер провода': '28AWG'}</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>www.tme.eu/Document/72fc6877a395baae40163dbe9cc3995a/INB-ZAS-DIN-RU.pdf</t>
+          <t>www.tme.eu/Document/623c5d7e83fdbabf901aec520d1bc17a/HA_Series.pdf</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>SF68G</t>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>PT6KV502A2020</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SF68G-YAN</t>
+          <t>PT6LV-5K</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Диод: выпрямительный; THT; 600В; 6А; Упаковка: лента; R6; 35нс</t>
+          <t>Потенциометр: монтажный; однооборотный,горизонтальный; 5кОм</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.0019</v>
+        <v>0.000202</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>static.tme.eu/products_pics/a/6/6/a66bd3e70b210db4edb54b4b58c697fb/550499.jpg</t>
+          <t>static.tme.eu/products_pics/e/f/7/ef7e00e5d533007f5b811e74d2cc6779/607737.jpg</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>www.tme.eu/ru/details/sf68g-yan/universalnye-diody-tht/yangjie-technology/sf68g/</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>{'Производитель': 'YANGJIE TECHNOLOGY', 'Тип диода': 'выпрямительный', 'Монтаж': 'THT', 'Обратное напряжение макс.': '600В', 'Прямой ток': '6А', 'Конструкция диода': 'одиночный диод', 'Характеристики полупроводниковых элементов': 'супер-быстрое переключение', 'Вид упаковки': 'лента', 'Корпус': 'R6', 'Время готовности': '35нс', 'Импульсный ток': '150А', 'Падение напряжения макс.': '1,7В'}</t>
+          <t>www.tme.eu/ru/details/pt6lv-5k/potentsiometry-tht-odnooborotnye/piher/pt6kv502a2020/</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип потенциометра': 'монтажный', 'Вид потенциометра': 'однооборотный', 'Сопротивление': '5кОм', 'Мощность': '100мВт', 'Погрешность': '±20%', 'Характеристика': 'линейная', 'Серия потенциометров': 'PT6LV', 'Стандарт потенциометра': '6мм', 'Угол поворота механический': '235 ±5°', 'Крутящий момент': '0,2...2Нсм', 'Рабочее напряжение макс.': '100В', 'Рабочая температура': '-25...70°C', 'Монтаж': 'THT', 'Шаг выводов': '5x5мм', 'Материал дорожки': 'углеродистый', 'Угол поворота электрический': '220 ±20°', 'Размеры корпуса': 'Ø6,3x3,3мм'}</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>www.tme.eu/Document/3084130a016246a43a5d85e56be18eaf/SF61G_SER.pdf</t>
+          <t>www.tme.eu/Document/7ad208364d9e5b91e65e440c0e9c3442/PT6Lx.pdf</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>SFH 4645</t>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>PR185-100R-A-16P6</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SFH4645</t>
+          <t>PR185-100R-A-P6</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ИК-передатчик; 940нм; прозрачная; 80мВт; 15°; SMD; 100мА; 1,5÷1,8В</t>
+          <t>Потенциометр: осевой; 100Ом; 200мВт; ±20%; под пайку; 6мм; L: 16мм</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2e-05</v>
+        <v>0.00695</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>static.tme.eu/products_pics/b/f/0/bf06162c05a27b0624acf3a34115a6d9/586741.jpg</t>
+          <t>static.tme.eu/products_pics/0/d/2/0d2b6e5b5f0e4998699f6974d3c1a06b/287262.jpg</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>www.tme.eu/ru/details/sfh4645/infrakrasnye-ledy/osram/sfh-4645/</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>{'Производитель': 'OSRAM', 'Тип диода': 'ИК-передатчик', 'Длина волны λp': '940нм', 'Линза диода': 'прозрачная', 'Оптическая мощность': '80мВт', 'Монтаж': 'SMD', 'Размеры': '3,3x2,35x1,7мм', 'Ток диода LED': '100мА', '#Promotion': 'blackpool18', 'Поверхность': 'плоская', 'Рабочее напряжение': '1,5...1,8В', 'Обзор': '15°'}</t>
+          <t>www.tme.eu/ru/details/pr185-100r-a-p6/potentsiometry-odnooborotnye-ugolnye/telpod/pr185-100r-a-16p6/</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип потенциометра': 'осевой', 'Сопротивление': '100Ом', 'Мощность': '200мВт', 'Погрешность': '±20%', 'Монтаж': 'под пайку', 'Диаметр оси': '6мм', 'Длина оси': '10мм', 'Характеристика': 'линейная', 'Размеры корпуса': 'Ø18x12мм', 'Длина резьбы': '6мм', 'Выводы': 'кольцевой', 'Материал дорожки': 'углеродистый', 'Характеристики потенциометров': 'моно', 'Вид оси': 'с насечкой', 'Угол поворота механический': '300°', 'Шаг выводов': '5,08мм', 'Длина оси L': '16мм', 'Рабочее напряжение макс.': '200В'}</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>www.tme.eu/Document/8779098747e6734be0de04691ff3714c/SFH4645.pdf</t>
+          <t>www.tme.eu/Document/62eccebcea8cd06ab95441901a40a7e0/PR185_16P6_3D.Pdf</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>SFH 4544</t>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>WS2812D-F8</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SFH4544</t>
+          <t>WS2812D-F8</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ИК-передатчик; 5мм; 950нм; черная; 550мВт; 10°; THT; 100мА; 1,6÷1,9В</t>
+          <t>LED; 8мм; трехцветный; RGB; Характеристики: программируемый</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.000304</v>
+        <v>0.00078</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>static.tme.eu/products_pics/f/e/b/febde61e1b2a7ccd4dfe05ad78c6476d/492380.jpg</t>
+          <t>static.tme.eu/products_pics/f/3/3/f332dc60fb1b57c60944f1fca572f6ee/533326.jpg</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>www.tme.eu/ru/details/sfh4544/infrakrasnye-ledy/osram/sfh-4544/</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>{'Производитель': 'OSRAM', 'Тип диода': 'ИК-передатчик', 'Диаметр диода LED': '5мм', 'Длина волны λp': '950нм', 'Линза диода': 'черная', 'Оптическая мощность': '550мВт', 'Монтаж': 'THT', 'Ток диода LED': '100мА', '#Promotion': 'blackpool18', 'Поверхность': 'выпуклая', 'Рабочее напряжение': '1,6...1,9В', 'Обзор': '10°'}</t>
+          <t>www.tme.eu/ru/details/ws2812d-f8/svetodiody-tht-8mm/worldsemi/</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип диода': 'LED', 'Диаметр диода LED': '8мм', 'Исполнение диода LED': 'трехцветный', 'Цвет диодa LED': 'RGB', 'Длина волны красного цвета λd': '620...630нм', 'Длина волны зеленого цвета λd': '515...530нм', 'Длина волны голубого цвета': '465...475нм', 'Монтаж': 'THT', 'Характеристики диодов LED': 'программируемый', '#Common #name - #search': 'управляемый', 'Рабочая температура': '-25...80°C', 'Кол-во цветов': '16,7M', 'Рабочее напряжение': '1,8..2,2/2,8..3,1/2,9..3,2В'}</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>www.tme.eu/Document/cfcc0d8a6669b62a22b9ffa1b7af2799/SFH4544.pdf</t>
+          <t>www.tme.eu/Document/ad9ae248bdf5411d99fdf954770e49ab/WS2812.txt</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>1-1393243-4</t>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>IPP50R199CPXKSA1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>RTE24110</t>
+          <t>IPP50R199CPXKSA1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Реле: электромагнитное; DPDT; Uобмотки: 110ВDC; 8A/250ВAC; 8А; IP67</t>
+          <t>Транзистор: N-MOSFET; полевой; 500В; 17А; 139Вт; PG-TO220-3</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.014</v>
+        <v>0.00202</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>static.tme.eu/products_pics/c/1/c/c1cddf42b5c032463476cdf943894e36/636642.jpg</t>
+          <t>static.tme.eu/products_pics/8/1/5/81513517264a0a86329bb3b1e29800b3/59300.jpg</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>www.tme.eu/ru/details/rte24110/rele-elektromagn-miniatiurnye/te-connectivity/1-1393243-4/</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>{'Производитель': 'TE Connectivity', 'Тип реле': 'электромагнитное', 'Контакты': 'DPDT', 'Номинальное напряжение обмотки': '110В DC', 'Нагрузка контакта AC @R': '8A / 250В AC', 'Нагрузка контакта DC @R': '8A / 30В DC', 'Ток контактов макс.': '8А', 'Коммутируемое напряжение': 'макс. 400В AC', 'Исполнение реле': 'миниатюрное', 'Монтаж': 'PCB', 'Сопротивление обмотки макс.': '28,8кОм', 'Напряжение обмотки мин.': '77В DC', 'Время срабатывания': '8мс', 'Внешние размеры': '29x12,7x15,7мм', 'Время отпускания': '6мс', 'Мощность, потребляемая обмоткой': '420мВт', 'Класс защиты': 'IP67', 'Рабочая температура': '-40...85°C', 'Вес': '13г', 'Серия реле': 'RT2', 'Материал контакта': 'AgNi 90/10', '#Promotion': 'teconn_201912', 'Шаг выводов': '5мм', 'Высота': '15,7мм', 'Кол-во выводов': '8'}</t>
+          <t>www.tme.eu/ru/details/ipp50r199cpxksa1/tranzistory-s-kanalom-n-tht/infineon-technologies/</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип транзистора': 'N-MOSFET', 'Технология': 'CoolMOS™', 'Полярность': 'полевой', 'Напряжение сток-исток': '500В', 'Ток стока': '17А', 'Рассеиваемая мощность': '139Вт', 'Корпус': 'PG-TO220-3', 'Напряжение затвор-исток': '±20В', 'Сопротивление в открытом состоянии': '0,199Ом', 'Монтаж': 'THT', 'Вид упаковки': 'туба', 'Вид канала': 'обогащенный'}</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>www.tme.eu/Document/20b30a5bf30586aa5a0833410fafc6af/IPP50R199CP-DTE.pdf</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>502578-0700</t>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>IXTP60N20T</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MX-502578-0700</t>
+          <t>IXTP60N20T</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Вилка; провод-плата; "мама"; CLIK-Mate; 1,5мм; PIN: 7; на провод</t>
+          <t>Транзистор: N-MOSFET; полевой; 200В; 60А; 500Вт; TO220-3; 118нс</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.00036</v>
+        <v>0.00205</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>static.tme.eu/products_pics/3/c/8/3c86273de4738928cb85ee55c6283721/424952.jpg</t>
+          <t>static.tme.eu/products_pics/5/1/e/51ec0da338efc7576395da0cb4cd6065/52963.jpg</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>www.tme.eu/ru/details/mx-502578-0700/razemy-signalnye-rastr-1-50mm/molex/502578-0700/</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>{'Производитель': 'MOLEX', '#Promotion': 'africa_anniversary', 'Разъем': 'вилка', 'Тип разъема': 'провод - плата', 'Вид разъемов': '"мама"', 'Серия разъема': 'CLIK-Mate', 'Шаг контактов': '1,5мм', 'Кол-во выводов': '7', 'Версия разъема': 'без контактов', 'Механический монтаж': 'на провод', 'Фиксация разъема': 'защелка', 'Рабочая температура': '-25...85°C', 'Конфигурация выводов разъема': '1x7', 'Дополнительная информация': 'больше товаров данной серии доступно на www.tme.eu', 'Alias': '5025780700', 'Engineering PN': '502578-0700'}</t>
+          <t>www.tme.eu/ru/details/ixtp60n20t/tranzistory-s-kanalom-n-tht/ixys/</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип транзистора': 'N-MOSFET', 'Полярность': 'полевой', 'Напряжение сток-исток': '200В', 'Ток стока': '60А', 'Рассеиваемая мощность': '500Вт', 'Корпус': 'TO220-3', 'Сопротивление в открытом состоянии': '40мОм', 'Монтаж': 'THT', 'Заряд затвора': '73нC', 'Вид упаковки': 'туба', 'Вид канала': 'обогащенный', 'Характеристики полупроводниковых элементов': 'thrench gate power mosfet', 'Время готовности': '118нс'}</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>www.tme.eu/Document/6875713b1f30ff5ff87e2fe31c7f0235/5025780200_sd.pdf</t>
+          <t>www.tme.eu/Document/44812aae0db68a764b468669eda9603d/IXTA(P,Q)60N20T.pdf</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>503149-1000</t>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>STP6NK60ZFP</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MX-503149-1000</t>
+          <t>STP6NK60ZFP</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Вилка; провод-плата; "мама"; CLIK-Mate; 1,5мм; PIN: 10; на провод</t>
+          <t>Транзистор: N-MOSFET; полевой; 600В; 3,8А; 110Вт; TO220FP</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.00043</v>
+        <v>0.0017</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>static.tme.eu/products_pics/4/3/d/43d49000d63b29f4ddd39b9ae26883cf/424954.jpg</t>
+          <t>static.tme.eu/products_pics/d/b/6/db6e7e2b449fafc55decaa715c08590e/60491.jpg</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>www.tme.eu/ru/details/mx-503149-1000/razemy-signalnye-rastr-1-50mm/molex/503149-1000/</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>{'Производитель': 'MOLEX', '#Promotion': 'africa_anniversary', 'Разъем': 'вилка', 'Тип разъема': 'провод - плата', 'Вид разъемов': '"мама"', 'Серия разъема': 'CLIK-Mate', 'Шаг контактов': '1,5мм', 'Кол-во выводов': '10', 'Версия разъема': 'без контактов', 'Механический монтаж': 'на провод', 'Фиксация разъема': 'защелка', 'Рабочая температура': '-25...85°C', 'Конфигурация выводов разъема': '2x5', 'Дополнительная информация': 'больше товаров данной серии доступно на www.tme.eu', 'Alias': '5031491000', 'Engineering PN': '503149-1000'}</t>
+          <t>www.tme.eu/ru/details/stp6nk60zfp/tranzistory-s-kanalom-n-tht/stmicroelectronics/</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип транзистора': 'N-MOSFET', 'Технология': 'SuperMesh™', 'Полярность': 'полевой', 'Напряжение сток-исток': '600В', 'Ток стока': '3,8А', 'Рассеиваемая мощность': '110Вт', 'Корпус': 'TO220FP', 'Напряжение затвор-исток': '±30В', 'Сопротивление в открытом состоянии': '1200мОм', 'Монтаж': 'THT', 'Вид упаковки': 'туба', 'Вид канала': 'обогащенный', 'Характеристики полупроводниковых элементов': 'ESD protected gate'}</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>www.tme.eu/Document/c33cc2020ff92d2ac74457cd277b7833/5031490800_sd.pdf</t>
+          <t>www.tme.eu/Document/3e2435781f07f0180cbe6444f8008c50/STP6NK60Z.pdf</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>171692-0106</t>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>IRFP3006PBF</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MX-171692-0106</t>
+          <t>IRFP3006PBF</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Вилка; провод-плата; "мама"; Mega-Fit; 5,7мм; PIN: 6; Конф: 2x3; 23А</t>
+          <t>Транзистор: N-MOSFET; полевой; 60В; 195А; 375Вт; TO247AC</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.0035</v>
+        <v>0.0056</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>static.tme.eu/products_pics/0/2/5/025a1c5c7745ef6525f92e9062b39b6b/424939.jpg</t>
+          <t>static.tme.eu/products_pics/1/0/0/100fc9da60f9ae9d6488451decdc0742/52384.jpg</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>www.tme.eu/ru/details/mx-171692-0106/razemy-signalnye-rastr-5-70mm/molex/171692-0106/</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>{'Производитель': 'MOLEX', '#Promotion': 'africa_anniversary', 'Разъем': 'вилка', 'Тип разъема': 'провод - плата', 'Вид разъемов': '"мама"', 'Серия разъема': 'Mega-Fit', 'Шаг контактов': '5,7мм', 'Кол-во выводов': '6', 'Конфигурация выводов разъема': '2x3', 'Максимальный ток': '23А', 'Класс горючести': 'UL94V-0', 'Версия разъема': 'без контактов', 'Цвет': 'черный', 'Рабочая температура': '-40...105°C', 'Фиксация разъема': 'защелка', 'Механический монтаж': 'на провод', 'Пространственная ориентация': 'прямой', 'Дополнительная информация': 'больше товаров данной серии доступно на www.tme.eu', 'Alias': '1716920106', 'Engineering PN': '171692-0106'}</t>
+          <t>www.tme.eu/ru/details/irfp3006pbf/tranzistory-s-kanalom-n-tht/infineon-irf/</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип транзистора': 'N-MOSFET', 'Технология': 'HEXFET®', 'Полярность': 'полевой', 'Напряжение сток-исток': '60В', 'Ток стока': '195А', 'Рассеиваемая мощность': '375Вт', 'Корпус': 'TO247AC', 'Напряжение затвор-исток': '±20В', 'Сопротивление в открытом состоянии': '2,1мОм', 'Монтаж': 'THT', 'Заряд затвора': '200нC', 'Вид упаковки': 'туба'}</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>www.tme.eu/Document/0498fc69ae72e4fa7ad609f215554d1e/Mega-Fit MOLEX.txt</t>
+          <t>www.tme.eu/Document/6c5acfff2f6970577e609dbbce91673c/IRFP3006PBF.pdf</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>226X65</t>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>M22-FLED-RG</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TFM-M4X65/DR226</t>
+          <t>M22-FLED-RG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Дистанцирующая стойка с резьбой; Внутр.резьба: M4; 65мм; сталь</t>
+          <t>Элемент подсветки; 22мм; RMQ-Titan; -25÷70°C; Подсвет: LED; 24ВDC</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.0206</v>
+        <v>0.00387</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>static.tme.eu/products_pics/5/e/2/5e2cdfaad155e88dae96c532c2fabdd3/284846.jpg</t>
+          <t>static.tme.eu/products_pics/b/5/0/b50d39ae95205c9cdb74ac3175ce020b/546968.jpg</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>www.tme.eu/ru/details/tfm-m4x65_dr226/elementy-distantsionnye-metallicheskie/dremec/226x65/</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>{'Производитель': 'DREMEC', 'Тип распорнои стойки': 'дистанцирующая стойка с резьбой', 'Внутренняя резьба': 'M4', 'Расстояние между платами': '65мм', 'Внешняя резьба': 'M4', 'Форма стойки': 'шестигранная', 'Материал': 'сталь', 'Материал покрытия': 'цинк', 'Резьба + Длина - #wyszukiwanie': 'M4x65', '#Promotion': 'Spacers_forbot', 'Размер ключа': '7мм', 'Дополнительная информация': 'больше товаров данной серии доступно на www.tme.eu', 'Характеристики механических элементов': 'с внутренней и внешней резьбой'}</t>
+          <t>www.tme.eu/ru/details/m22-fled-rg/panelnye-aksessuary-standartnye/eaton-electric/</t>
+        </is>
+      </c>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип аксессуаров для переключателей': 'элемент подсветки', 'Стандарт переключателя': '22мм', 'Серия производителя': 'RMQ-Titan', 'Рабочая температура': '-25...70°C', 'Подсветка': 'LED', 'Монтаж': 'фронтальный', 'Выводы': 'самозажимная клемма', 'Цвет диодa LED': 'красный/зеленый', 'Напряжение питания': '24В DC', 'Рабочий ток': '10...15мА', 'Характеристики переключателей': 'плоский', '#Common #name - #search': 'RMQ Flat Rear'}</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>www.tme.eu/Document/451757bfa0cf89650334b0f101e3f2bd/Dremec_13.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>LT1767EMS8E-5#PBF</t>
+          <t>www.tme.eu/Document/a0961acde83b0d03be17da458b112b27/M30C-YTB.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>HER508</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LT1767EMS8E5PBF</t>
+          <t>HER508</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PMIC; преобразователь DC/DC; Uвх: 3÷25В; Uвых: 5В; MSOP8; buck</t>
+          <t>Диод: выпрямительный; THT; 1кВ; 5А; Упаковка: Ammo Pack; DO27; 100нс</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2.4e-05</v>
+        <v>0.0011</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>static.tme.eu/products_pics/5/3/1/531d7915b61678c8109674b14bfbf850/285547.jpg</t>
+          <t>static.tme.eu/products_pics/c/a/9/ca9e994cf064bab176fe27dff82952ef/60318.jpg</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>www.tme.eu/ru/details/lt1767ems8e5pbf/reguliatory-napriazheniia-mikroskhemy-dc-dc/analog-devices-linear-technology/lt1767ems8e-5-pbf/</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>{'Производитель': 'Analog Devices (Linear Technology)', 'Тип микросхемы': 'PMIC', 'Вид микросхемы': 'преобразователь DC/DC', 'Входное напряжение': '3...25В', 'Выходное напряжение': '5В', 'Выходной ток': '1,5А', 'Частота': '1250кГц', 'Монтаж': 'SMD', 'Корпус': 'MSOP8', 'Топология': 'buck', 'Кол-во каналов': '1'}</t>
+          <t>www.tme.eu/ru/details/her508/universalnye-diody-tht/dc-components/</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип диода': 'выпрямительный', 'Монтаж': 'THT', 'Обратное напряжение макс.': '1кВ', 'Прямой ток': '5А', 'Конструкция диода': 'одиночный диод', 'Характеристики полупроводниковых элементов': 'быстрое переключение', 'Вид упаковки': 'Ammo Pack', 'Корпус': 'DO27', 'Время готовности': '100нс', 'Импульсный ток': '150А', 'Падение напряжения макс.': '1,7В'}</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>www.tme.eu/Document/cfc3853de0a94ff4921db09d0d2742cc/lt1767.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="30" r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>PF92251V1-1000U-G99</t>
+          <t>www.tme.eu/Document/b910c50b6b49fab4130a48499e482579/HER501-HER508-DTE.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>SP2111/S12 II 1N</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PF92251V1-G99-A</t>
+          <t>SP2111/S12</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Вентилятор: DC; осевой; 12ВDC; 92x92x25мм; 126,75м3/ч; 45,5дБА</t>
+          <t>Вилка; "мама"; SP21; PIN: 12; IP68; 7÷12мм; пайка; на провод; 400В</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.1092</v>
+        <v>0.0259</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>static.tme.eu/products_pics/5/d/e/5de68175009220d792b5fff4ea124a77/586569.jpg</t>
+          <t>static.tme.eu/products_pics/8/a/0/8a016c70def4dbb27e1b15243ea7225a/371417.jpg</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>www.tme.eu/ru/details/pf92251v1-g99-a/ventiliatory-dc-12v/sunon/pf92251v1-1000u-g99/</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>{'Производитель': 'SUNON', 'Тип вентилятора': 'DC', 'Вид вентилятора': 'осевой', 'Напряжение питания': '12В DC', 'Размер вентилятора': '92x92x25мм', 'Потребл. мощность': '4,44Вт', 'Номинальный ток': '0,37А', 'Воздушный поток': '126,75м&lt;sup&gt;3&lt;/sup&gt;/ч', 'Уровень шума': '45,5дБА', 'Вид подшипника': 'Vapo', 'Сигнальный вывод': 'Типа F', 'Скорость вращения': '4500об./мин.', 'Вес': '106г', 'Сопротивление изоляции мин.': '10МОм', 'Материал крыльчатки': 'термопласт', 'Материал корпуса': 'термопласт', 'Класс изоляции': 'A', 'Выводы': '3 провода', 'Рабочая температура': '-10...70°C', 'Длина провода': '305мм', 'Статическое давление': '8,89мм H&lt;sub&gt;2&lt;/sub&gt;O', 'Мотор вентилятора': 'бесколлекторный, DC', 'Класс горючести': 'UL94V-0', 'Дополнительные функции': 'автоперезапуск', 'Рабочее напряжение': '6...13,8В', 'Размер провода': '24AWG'}</t>
+          <t>www.tme.eu/ru/details/sp2111_s12/razemy-weipu/weipu/sp2111-s12-ii-1n/</t>
+        </is>
+      </c>
+      <c r="G22" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип разъема': 'круглый', 'Разъем': 'вилка', 'Вид разъемов': '"мама"', 'Серия разъема': 'SP21', 'Кол-во выводов': '12', 'Класс защиты': 'IP68', 'Внешний диаметр провода': '7...12мм', 'Электрический монтаж': 'пайка', 'Механический монтаж': 'на провод', 'Номинальное напряжение': '400В', 'Дополнительная информация': 'больше товаров данной серии доступно на www.tme.eu', 'Фиксация разъема': 'резьбовая', 'Сечение провода 1': '0,75мм&lt;sup&gt;2&lt;/sup&gt;', 'Номинальный ток 1': '5А', 'Рабочая температура': '-25...85°C'}</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>www.tme.eu/Document/669ceba5964765359ee39d8b0b038d57/PF92251V1-1000U-G99 D09034460G-00.pdf</t>
+          <t>www.tme.eu/Document/695668426cf2efe008d7e70b952aa241/SP21.pdf</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>L-934SRD-E</t>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>SP2111/P12 II 1N</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>SP2111/P12</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Артикула нет на TME</t>
+          <t>Вилка; "папа"; SP21; PIN: 12; IP68; 7÷12мм; пайка; на провод; 400В</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0217</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>static.tme.eu/products_pics/c/8/9/c8962e0e9f0cd9242036587606afbf14/416835.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>www.tme.eu/ru/details/sp2111_p12/razemy-weipu/weipu/sp2111-p12-ii-1n/</t>
+        </is>
+      </c>
+      <c r="G23" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип разъема': 'круглый', 'Разъем': 'вилка', 'Вид разъемов': '"папа"', 'Серия разъема': 'SP21', 'Кол-во выводов': '12', 'Класс защиты': 'IP68', 'Внешний диаметр провода': '7...12мм', 'Электрический монтаж': 'пайка', 'Механический монтаж': 'на провод', 'Номинальное напряжение': '400В', 'Дополнительная информация': 'больше товаров данной серии доступно на www.tme.eu', 'Фиксация разъема': 'резьбовая', 'Сечение провода 1': '0,75мм&lt;sup&gt;2&lt;/sup&gt;', 'Номинальный ток 1': '5А', 'Рабочая температура': '-25...85°C'}</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>www.tme.eu/Document/695668426cf2efe008d7e70b952aa241/SP21.pdf</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>ULN2004A</t>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>KQ2L06-M5A</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ULN2004A</t>
+          <t>KQ2L06-M5A</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Driver; darlington,транзисторная матрица; 0,5А; 50В; Каналы: 7</t>
+          <t>Быстроразъемное соединение; с резьбой,угловой 90°; M5; внешняя</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.00101</v>
+        <v>0.00329</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>static.tme.eu/products_pics/7/f/8/7f875655d065e0178d8b518f0dda4bec/201862.jpg</t>
+          <t>static.tme.eu/products_pics/4/0/4/4040bae49fed6597a4b6588ac4c5ea09/381784.jpg</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>www.tme.eu/ru/details/uln2004a/draivery-mikroskhemy/stmicroelectronics/</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>{'Производитель': 'STMicroelectronics', 'Тип микросхемы': 'driver', 'Вид микросхемы': 'транзисторная матрица', 'Выходной ток': '0,5А', 'Выходное напряжение': '50В', 'Кол-во каналов': '7', 'Монтаж': 'THT', 'Рабочая температура': '-40...85°C', 'Входное напряжение': '30В', 'Корпус': 'DIP16'}</t>
+          <t>www.tme.eu/ru/details/kq2l06-m5a/razemy-i-provoda/smc/</t>
+        </is>
+      </c>
+      <c r="G24" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип аксессуаров для пневматики': 'быстроразъемное соединение', 'Версия соединителя': 'угловой 90°', 'Резьба': 'M5', 'Вид резьбы': 'внешняя', 'Внешний диаметр провода': '6мм', 'Рабочее давление': '-1...10бар', 'Рабочая температура': '-5...60°C', 'Материал корпуса': 'полипропилен', 'Характеристики элементов пневматики': 'поворотный на 360°'}</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>www.tme.eu/Document/59932c7719cf25b6baad20a181aaae88/ULN200x.pdf</t>
+          <t>www.tme.eu/Document/44caf5003dc345c4787b2e3bea23bf51/KQ2-SERIES.pdf</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>39-30-0060</t>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>PMEG4005AEV.115</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MX-39-30-0060</t>
+          <t>PMEG4005AEV.115</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Гнездо; провод-плата; "папа"; Mini-Fit Jr; 4,2мм; PIN: 6; THT; 13А</t>
+          <t>Диод: выпрямительный Шоттки; SMD; 40В; 0,5А; Ufmax: 0,47В; SOT666</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.0023</v>
+        <v>2.9e-05</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>static.tme.eu/products_pics/1/8/5/185e65bc40581880c4f2c82958de8cfe/746.jpg</t>
+          <t>static.tme.eu/products_pics/e/0/6/e06ceaa63cab65ded13f2b20b1fdd688/418864.jpg</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>www.tme.eu/ru/details/mx-39-30-0060/razemy-signalnye-rastr-4-20mm/molex/39-30-0060/</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>{'Производитель': 'MOLEX', '#Promotion': 'africa_anniversary', 'Разъем': 'гнездо', 'Тип разъема': 'провод - плата', 'Вид разъемов': '"папа"', 'Серия разъема': 'Mini-Fit Jr.', 'Шаг контактов': '4,2мм', 'Кол-во выводов': '6', 'Электрический монтаж': 'THT', 'Максимальный ток': '13А', 'Покрытие контакта': 'луженые', 'Класс горючести': 'UL94V-0', 'Фиксация разъема': 'защелка', 'Конфигурация выводов разъема': '2x3', 'Дополнительная информация': 'больше товаров данной серии доступно на www.tme.eu', 'Alias': '39300060', 'Engineering PN': '5569-06A2-210', 'Пространственная ориентация': 'угловой 90°'}</t>
+          <t>www.tme.eu/ru/details/pmeg4005aev.115/diody-shotki-smd/nexperia/</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип диода': 'выпрямительный Шоттки', 'Монтаж': 'SMD', 'Обратное напряжение макс.': '40В', 'Прямой ток': '0,5А', 'Конструкция диода': 'одиночный диод', 'Падение напряжения макс.': '0,47В', 'Корпус': 'SOT666', 'Вид упаковки': 'лента', 'Импульсный ток': '3,5А'}</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>www.tme.eu/Document/dc1bd2993ed47b1262da95547174c200/MX-39-30-0060.pdf</t>
+          <t>www.tme.eu/Document/1f193c68b39b55a6895795f54aa64c8b/PMEG4005AEV-DTE.pdf</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>42816-0412</t>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>RDA-S4-W2-B</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MX-42816-0412</t>
+          <t>RDA-S4-W2-B</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Вилка; провод-плата; "мама"; Серия: Mini-Fit Sr; 10мм; PIN: 4; 600В</t>
+          <t>Адаптер; гнездо "банан" 4мм,вилочный наконечник; 60ВDC; 36А</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.01074</v>
+        <v>0.00296</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>static.tme.eu/products_pics/9/c/6/9c6840ea15823045d1db990f774bd7f3/366649.jpg</t>
+          <t>static.tme.eu/products_pics/5/1/2/5129e8bee14a5556b25023ddb90411c4/40195.jpg</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>www.tme.eu/ru/details/mx-42816-0412/razemy-signalnye-rastr-10mm/molex/42816-0412/</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>{'Производитель': 'MOLEX', '#Promotion': 'africa_anniversary', 'Разъем': 'вилка', 'Тип разъема': 'провод - плата', 'Вид разъемов': '"мама"', 'Серия разъема': 'Mini-Fit Sr.', 'Шаг контактов': '10мм', 'Кол-во выводов': '4', 'Alias': '428160412', 'Engineering PN': '42816-0412', 'Номинальное напряжение': '600В', 'Механический монтаж': 'на провод', 'Рабочая температура': '-40...105°C', 'Версия разъема': 'без контактов'}</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>www.tme.eu/Document/1f6b35bb6f23de72d8f577f3719e1057/mx42816.pdf</t>
+          <t>www.tme.eu/ru/details/rda-s4-w2-b/shtepselnye-vilki/</t>
+        </is>
+      </c>
+      <c r="G26" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип измерительных аксессуаров': 'адаптер', 'Конструкция кабеля / переходника': 'гнездо "банан" 4мм', 'Номинальный ток': '36А', 'Цвет': 'черный', 'Длина': '43мм', 'Покрытие контакта': 'никелированные', 'Материал контакта': 'латунь', 'Материал изолятора': 'полиамид', 'Номинальное напряжение': '60В DC'}</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr">
-        <is>
-          <t>T910W-20K</t>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>RDA-S4-W2-B</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>T910W-20K</t>
+          <t>RDA-S4-W2-B</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Потенциометр: монтажный; многооборотный; 20кОм; 500мВт; THT; ±10%</t>
+          <t>Адаптер; гнездо "банан" 4мм,вилочный наконечник; 60ВDC; 36А</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.00076</v>
+        <v>0.00296</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>static.tme.eu/products_pics/8/7/9/879f983ff716a8c18d22787ca4396591/346620.jpg</t>
+          <t>static.tme.eu/products_pics/5/1/2/5129e8bee14a5556b25023ddb90411c4/40195.jpg</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>www.tme.eu/ru/details/t910w-20k/potentsiometry-tht-mnogooborotnye-3-8-dm/sr-passives/</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>{'Производитель': 'SR PASSIVES', 'Тип потенциометра': 'монтажный', 'Вид потенциометра': 'многооборотный', 'Сопротивление': '20кОм', 'Мощность': '500мВт', 'Монтаж': 'THT', 'Погрешность': '±10%', 'Характеристика': 'линейная', 'Материал дорожки': 'металлокерамический', 'Рабочая температура': '-55...125°C', 'Стандарт потенциометра': '3/8"', 'Температурный коэффициент': '100ppm/°C', 'Размеры корпуса': '10x9,5x4,8мм', 'Шаг выводов': '2,5мм', 'Количество оборотов механич.': '28', 'Аналоги других производителей': 'T93YA', 'Регулировка': 'вертикальная', 'Ресурс': '200циклов'}</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>www.tme.eu/Document/46e9ecf29426285f0ed14cb1dbb4a9ca/SR_Passives-T910.pdf</t>
+          <t>www.tme.eu/ru/details/rda-s4-w2-b/shtepselnye-vilki/</t>
+        </is>
+      </c>
+      <c r="G27" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип измерительных аксессуаров': 'адаптер', 'Конструкция кабеля / переходника': 'гнездо "банан" 4мм', 'Номинальный ток': '36А', 'Цвет': 'черный', 'Длина': '43мм', 'Покрытие контакта': 'никелированные', 'Материал контакта': 'латунь', 'Материал изолятора': 'полиамид', 'Номинальное напряжение': '60В DC'}</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>TR-20-SM</t>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ILM12F-DOE-635-7-247-F</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TR-20-SM</t>
+          <t>ILM12F-C-635-7-247</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Губцевый; для резки,миниатюрные; Дл.инструмента: 140мм</t>
+          <t>Модуль: лазерный; 7мВт; красный; крест; 635нм; 4,5÷30ВDC; IP54</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.0503</v>
+        <v>0.0302</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>static.tme.eu/products_pics/a/8/4/a84fb90a10c7b1595db87c69d4e98dbb/281726.jpg</t>
+          <t>static.tme.eu/products_pics/7/e/f/7ef35f30eda27eac8adf78fba3ab6fd0/435944.jpg</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>www.tme.eu/ru/details/tr-20-sm/kleshchi-kusachki-dlia-rezki/piergiacomi/</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>{'Производитель': 'PIERGIACOMI', 'Тип инструмента': 'губцевый', 'Вид губцевый': 'миниатюрные', 'Характеристики щипцов/ножей': 'ручки с двухкомпонентными накладками эргономичной формы с противоскользящим верхним слоем', 'Диапазон резки': 'медная проволока диаметром до 0,8мм', 'Длина инструмента': '140мм', '#Promotion': 'electricians_day_201906'}</t>
+          <t>www.tme.eu/ru/details/ilm12f-c-635-7-247/moduli-lazernye/laser-components/ilm12f-doe-635-7-247-f/</t>
+        </is>
+      </c>
+      <c r="G28" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип модуля': 'лазерный', 'Мощность': '7мВт', 'Цвет': 'красный', 'Оптическая головка': 'крест', 'Длина волны λd': '635нм', 'Напряжение питания': '4,5...30В DC', 'Характеристики оптоэлектронных модулей': 'возможна коллимация пучка', 'Применение': 'системы сигнализации', 'Внешние размеры': 'Ø12x68мм', 'Серия производителя': 'FLEXPOINT®', 'Серия': 'ILM12F', 'Электрическое подключение': 'разъем М12 4pin', 'Класс защиты': 'IP54'}</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>www.tme.eu/Document/3283c0440d53f053bb6c880de2756158/TR-20-SM.pdf</t>
+          <t>www.tme.eu/Document/6fbb8f9664555bf33195763088a09479/ILM12F.pdf</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>SFH620A-3</t>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>PIC16F1933-I/SO</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SFH620A-3</t>
+          <t>PIC16F1933-I/SO</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Оптрон; THT; Каналы: 1; Вых: транзисторный; Uизол: 5,3кВ; Uce: 70В</t>
+          <t>Микроконтроллер PIC; Память: 7кБ; SRAM: 256Б; EEPROM: 256Б; SMD</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.00024</v>
+        <v>0.00079</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>static.tme.eu/products_pics/d/2/5/d25df74059f2c953ae3361deb72a98d6/285339.jpg</t>
+          <t>static.tme.eu/products_pics/8/1/0/81051b9be20cf4a4329cccddb66e4d6e/285347.jpg</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>www.tme.eu/ru/details/sfh620a-3/optrony-analogovyi-vykhod/vishay/</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>{'Производитель': 'VISHAY', 'Тип полупроводникового элемента': 'оптрон', 'Монтаж': 'THT', 'Кол-во каналов': '1', 'Вид выхода': 'транзисторный', 'Напряжение изоляции': '5,3кВ', 'CTR@If': '4.5%@1mA', 'Напряжение коллектор-эмиттер': '70В', 'Корпус': 'DIP4', 'Время включения': '3мкс', 'Время выключения': '2,3мкс'}</t>
+          <t>www.tme.eu/ru/details/pic16f1933-i_so/lineika-pic-8-bit/microchip-technology/</t>
+        </is>
+      </c>
+      <c r="G29" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип микросхемы': 'микроконтроллер PIC', 'Память программы': '7кБ', 'Объем памяти SRAM': '256Б', 'Объем памяти EEPROM': '256Б', 'Интерфейс': 'MSSP (SPI / I2C)', 'Монтаж': 'SMD', 'Корпус': 'SO28', 'Кол-во входов/выходов': '25', 'Кол-во таймеров 8бит': '4', 'Кол-во таймеров 16бит': '1', 'Вид архитектуры': 'Harvard  8бит', 'Встроенный генератор': '32МГц', 'Семейство': 'PIC16', 'Рабочее напряжение': '1,8...5,5В'}</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>www.tme.eu/Document/dee9b38586ed8839c054de1e912b26dd/SFH6206-1.pdf</t>
-        </is>
-      </c>
-    </row>
+          <t>www.tme.eu/Document/4d0c5c72ca8112c45547387f903c5f34/PIC16F1933-I_ML.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>LTE-4206</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>LTE-4206</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ИК-передатчик; 3мм; 940нм; прозрачная; 1,383÷7,67мВт; 20°; THT</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0.00013</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>static.tme.eu/products_pics/3/3/1/331a414da4e5c4e20cf7de4b481b5806/438588.jpg</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>www.tme.eu/ru/details/lte-4206/infrakrasnye-ledy/liteon/</t>
+        </is>
+      </c>
+      <c r="G30" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип диода': 'ИК-передатчик', 'Диаметр диода LED': '3мм', 'Длина волны λp': '940нм', 'Линза диода': 'прозрачная', 'Оптическая мощность': '1,383...7,67мВт', 'Монтаж': 'THT', 'Ток диода LED': '20мА', 'Рабочее напряжение': '1,2...1,6В', 'Обзор': '20°'}</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>www.tme.eu/Document/3a5cb70dcd89a87a28d68e3f0594b7ea/LTE-4206.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>RT-125C</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>RT-125C</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Блок питания: импульсный; модульный; 132,5Вт; 5ВDC; 199x98x38мм</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0.6765</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>static.tme.eu/products_pics/2/1/0/2104fc19b06369c0cb2d4fde08c9f087/338613.jpg</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>www.tme.eu/ru/details/rt-125c/bloki-pitaniia-dlia-vstraivaniia/mean-well/</t>
+        </is>
+      </c>
+      <c r="G31" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип блока питания': 'импульсный', 'Вид блока питания': 'модульный', 'Мощность': '132,5Вт', 'Внешние размеры': '199x98x38мм', 'Выходное напряжение 2': '15В DC', 'Выходное напряжение 3': '-15В DC', 'Выходной ток': '10 (2...15)А', 'Ток на выходе 2': '4,5 (0,5...6)А', 'Ток на выходе 3': '1 (0,1...1)А', 'Характеристики блоков питания/преобразователей': 'блок питания имеет несколько выходов, для корректной работы необходимо обеспечить нагрузку всех выходов в соответствующем диапазоне', 'Вес': '700г', 'Рабочая температура': '-25...70°C', 'Количество выходов': '3', 'Электрическое подключение': 'клеммная колодка', 'Монтаж': 'открытое исполнение', 'Защита': 'от увеличения напряжения', 'Напряжение питания': '248...373В DC', 'КПД': '81%', 'Серия': 'RT-125', 'Вид корпуса': '902-RT', 'Сопутствующие товары': 'DRP-03', 'Выходное напряжение': '5В DC'}</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>www.tme.eu/Document/ee6f0e6a23c81f0c481af689425f21b2/INB-MN-ENCLOSED-RU.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>LNS-1</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>LNS-1</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Набор заклепок</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0.0067</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>static.tme.eu/products_pics/5/b/c/5bc907842357e38bba9ca847cdd4520e/544928.jpg</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>www.tme.eu/ru/details/lns-1/zaklepki/ht-hi-tech-polymers-oy/</t>
+        </is>
+      </c>
+      <c r="G32" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип крепежного элемента': 'набор заклепок', 'Назначение': 'HTPC-16'}</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>www.tme.eu/Document/12c90dcac9056a2eb26687b38a6ec019/LNS-1.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Z24A</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Z24AN-ABS</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Корпус: универсальный; Х: 47мм; Y: 66мм; Z: 25мм; ABS</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>static.tme.eu/products_pics/c/d/d/cddd73d949b130e20718c43f58495ae6/576301.jpg</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>www.tme.eu/ru/details/z24an-abs/korpusa-universalnye/kradex/z24an-abs/</t>
+        </is>
+      </c>
+      <c r="G33" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип корпуса': 'универсальный', 'Размер Х': '47мм', 'Размер Y': '66мм', 'Размер Z': '25мм', 'Материал корпуса': 'ABS', 'Цвет корпуса': 'голубой полупрозрачный'}</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>www.tme.eu/Document/82a304249f020c892dcfcd20554d6c99/Z24A.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MF40201V2-1000U-A99</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>MF40201V2-A99-A</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Вентилятор: DC; осевой; 12ВDC; 40x40x20мм; 13,01м3/ч; 21дБА; Vapo</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0.0285</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>static.tme.eu/products_pics/f/a/1/fa1a93887b02011e97d3a4ca780bf5be/582036.jpg</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>www.tme.eu/ru/details/mf40201v2-a99-a/ventiliatory-dc-12v/sunon/mf40201v2-1000u-a99/</t>
+        </is>
+      </c>
+      <c r="G34" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип вентилятора': 'DC', 'Вид вентилятора': 'осевой', 'Напряжение питания': '12В DC', 'Размер вентилятора': '40x40x20мм', 'Потребл. мощность': '0,54Вт', 'Номинальный ток': '0,045А', 'Воздушный поток': '13,01м&lt;sup&gt;3&lt;/sup&gt;/ч', 'Уровень шума': '21дБА', 'Вид подшипника': 'Vapo', 'Скорость вращения': '6000об./мин.', 'Вес': '29г', 'Сопротивление изоляции мин.': '10МОм', 'Материал крыльчатки': 'термопласт', 'Материал корпуса': 'термопласт', 'Класс изоляции': 'A', 'Выводы': '2 провода', 'Рабочая температура': '-10...70°C', 'Длина провода': '305мм', 'Статическое давление': '4,32мм H&lt;sub&gt;2&lt;/sub&gt;O', 'Мотор вентилятора': 'бесколлекторный, DC', 'Класс горючести': 'UL94V-0', 'Дополнительные функции': 'автоперезапуск', 'Рабочее напряжение': '4,5...13,8В', 'Размер провода': '26AWG'}</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>www.tme.eu/Document/bcbab32aa9d675b07c94b6c48fd7ff55/MF40201V2-1000U-A99 D04111390G-00.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>LPF-90-42</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>LPF-90-42</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Блок питания: импульсный; LED; 90,3Вт; 42ВDC; 2,15А; 90÷305ВAC</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0.6646</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>static.tme.eu/products_pics/1/c/4/1c40df3c355ea8b41869501850048eca/150631.jpg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>www.tme.eu/ru/details/lpf-90-42/bloki-pitaniia-dlia-led/mean-well/</t>
+        </is>
+      </c>
+      <c r="G35" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип блока питания': 'импульсный', 'Применение': 'LED', 'Вид блока питания': 'CV+CC', 'Мощность': '90,3Вт', 'Выходное напряжение': '42В DC', 'Выходной ток': '2,15А', 'Напряжение питания': '127...431В DC', 'Класс защиты': 'IP67', 'Внешние размеры': '61x161x36мм', 'Характеристики блоков питания/преобразователей': 'номинальные параметры при полной нагрузке', 'Защита': 'от увеличения напряжения', 'Вес': '700г', 'Рабочая температура': '-40...70°C', 'Электрическое подключение': 'провода 300мм', 'Количество выходов': '1', 'Дополнительные функции': 'активное PFC', 'Серия': 'LPF-90', 'КПД': '91%'}</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>www.tme.eu/Document/8f6b9eb035fb2946c20da9fe547dba90/INB-MN-LED-RU.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>IXFH26N60P</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>IXFH26N60P</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Транзистор: N-MOSFET; PolarHV™; полевой; 600В; 26А; 460Вт; TO247-3</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0.00623</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>static.tme.eu/products_pics/d/8/b/d8bbc276e322c3e8c22886df1d4e31d5/16338.jpg</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>www.tme.eu/ru/details/ixfh26n60p/tranzistory-s-kanalom-n-tht/ixys/</t>
+        </is>
+      </c>
+      <c r="G36" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип транзистора': 'N-MOSFET', 'Технология': 'PolarHV™', 'Полярность': 'полевой', 'Напряжение сток-исток': '600В', 'Ток стока': '26А', 'Рассеиваемая мощность': '460Вт', 'Корпус': 'TO247-3', 'Напряжение затвор-исток': '±30В', 'Сопротивление в открытом состоянии': '270мОм', 'Монтаж': 'THT', 'Заряд затвора': '72нC', 'Вид упаковки': 'туба', 'Вид канала': 'обогащенный', 'Время готовности': '200нс'}</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>www.tme.eu/Document/2af6871ed996921978a504d521ce54d3/IXFH26N60P.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>SS49E</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>SS49E</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Датчик: Холла; Диапазон: ±1000Гс; Uпит: 3÷6,5ВDC; 6мА</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0.000104</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>static.tme.eu/products_pics/0/c/e/0ceb1f77d747ee63f0513d0a22097555/213063.jpg</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>www.tme.eu/ru/details/ss49e/datchiki-kholla/honeywell/</t>
+        </is>
+      </c>
+      <c r="G37" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип датчика': 'Холла', 'Порог срабатывания': '±1000Гс', 'Напряжение питания': '3...6,5В DC', 'Коммутируемый ток': '6мА', 'Рабочая температура': '-40...100°C', 'Конфигурация выхода': 'линейный'}</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>www.tme.eu/Document/30447c50e7b2c9690d917bb3f82c99fe/ss49e-ss59et.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>MEGAVAL 175A</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>MEGAVAL-175A</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Предохранитель: плавкая вставка; 175А; 32В; автомобильный; 68,6мм</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0.0182</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>static.tme.eu/products_pics/d/c/e/dce26399da05949750cfde69677994b1/512973.jpg</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>www.tme.eu/ru/details/megaval-175a/drugie-avtomobilnye-predokhraniteli/mta/megaval-175a/</t>
+        </is>
+      </c>
+      <c r="G38" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип предохранителя': 'плавкая вставка', 'Номинальный ток': '175А', 'Номинальное напряжение': '32В', 'Вид предохранителя': 'автомобильный', 'Размер предохранителя': '68,6мм', 'Цвет': 'белый', '#Alternative #product': '0701175'}</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>www.tme.eu/Document/847cfb57c4200095ba005d9b3e4046d5/MTA_Product_catalogue_2018_s.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>MIDIVAL 30A</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>MIDIVAL-30A</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Предохранитель: плавкая вставка; 30А; 32В; автомобильный; 40мм</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0.00618</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>static.tme.eu/products_pics/a/1/f/a1f4e00e9208bf770f5d6469b05c0a93/31963.jpg</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>www.tme.eu/ru/details/midival-30a/drugie-avtomobilnye-predokhraniteli/mta/midival-30a/</t>
+        </is>
+      </c>
+      <c r="G39" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип предохранителя': 'плавкая вставка', 'Номинальный ток': '30А', 'Номинальное напряжение': '32В', 'Вид предохранителя': 'автомобильный', 'Размер предохранителя': '40мм', 'Цвет': 'оранжевый', 'Серия производителя': 'MIDIVAL', 'Рабочая температура': '-40...125°C', '#Alternative #product': '0702030', 'Монтаж': 'винт М5'}</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>www.tme.eu/Document/847cfb57c4200095ba005d9b3e4046d5/MTA_Product_catalogue_2018_s.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>RHS25RE</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>RHS25RE</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Потенциометр: осевой; однооборотный; 25Ом; 25Вт; 6,35мм; L: 22,23мм</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0.0914</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>static.tme.eu/products_pics/d/7/2/d7275bd2e8b0e3a9de56374913ccc0f3/232722.jpg</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>www.tme.eu/ru/details/rhs25re/potentsiometry-odnooborotnye-provolochnye/ohmite/</t>
+        </is>
+      </c>
+      <c r="G40" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип потенциометра': 'осевой', 'Вид потенциометра': 'однооборотный', 'Сопротивление': '25Ом', 'Мощность': '25Вт', 'Диаметр оси': '6,35мм', 'Характеристика': 'линейная', 'Размеры корпуса': 'Ø39,6x34,9мм', 'Длина резьбы': '9,53мм', 'Длина оси': '12,7мм', 'Вид оси': 'D профиль', 'Материал дорожки': 'проволочный', 'Монтажная резьба': '3/8"x32UNEF', 'Длина оси L': '22,23мм'}</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>www.tme.eu/Document/328be2551b00c340473695a498623641/controls_rheostats.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>MAX660CSA+</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MAX660CSA+</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>PMIC; преобразователь DC/DC; Uвх: 1,5÷5,5В; Uвых: -5,5÷11В; SO8</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>static.tme.eu/products_pics/4/8/a/48a33ccfb5a851d5982dcdda0776f7ac/285338.jpg</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>www.tme.eu/ru/details/max660csa+/reguliatory-napriazheniia-mikroskhemy-dc-dc/maxim-integrated/</t>
+        </is>
+      </c>
+      <c r="G41" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип микросхемы': 'PMIC', 'Вид микросхемы': 'преобразователь DC/DC', 'Входное напряжение': '1,5...5,5В', 'Выходное напряжение': '-5,5...11В', 'Выходной ток': '0,1А', 'Частота': '80кГц', 'Мощность': '727мВт', 'Монтаж': 'SMD', 'Корпус': 'SO8', 'Топология': 'зарядовый насос', 'Кол-во каналов': '1'}</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>www.tme.eu/Document/c63992d00f9f1caeaa27e03fa0288e51/MAX660CPA+.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>MAX887HESA+</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MAX887HESA+</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>PMIC; преобразователь DC/DC; Uвх: 3,5÷11В; Uвых: 1,25÷10В; SO8</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>8.000000000000001e-05</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>static.tme.eu/products_pics/4/8/a/48a33ccfb5a851d5982dcdda0776f7ac/285338.jpg</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>www.tme.eu/ru/details/max887hesa+/reguliatory-napriazheniia-mikroskhemy-dc-dc/maxim-integrated/</t>
+        </is>
+      </c>
+      <c r="G42" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип микросхемы': 'PMIC', 'Вид микросхемы': 'преобразователь DC/DC', 'Входное напряжение': '3,5...11В', 'Выходное напряжение': '1,25...10В', 'Выходной ток': '0,6А', 'Частота': '300кГц', 'Мощность': '471мВт', 'Монтаж': 'SMD', 'Корпус': 'SO8', 'Топология': 'buck', 'Кол-во каналов': '1'}</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>www.tme.eu/Document/9259e352f7af53de65a77e93b3a57dd6/MAX887HESA+.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>PN2222ATA</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>PN2222ATA</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Транзистор: NPN; биполярный; 40В; 1А; 625мВт; TO92</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0.00027</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>static.tme.eu/products_pics/b/1/4/b14f59eced0d57fc3010e7682ca65167/403830.jpg</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>www.tme.eu/ru/details/pn2222ata/tranzistory-npn-tht/on-semiconductor-fairchild/</t>
+        </is>
+      </c>
+      <c r="G43" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип транзистора': 'NPN', 'Полярность': 'биполярный', 'Напряжение коллектор-эмиттер': '40В', 'Ток коллектора': '1А', 'Рассеиваемая мощность': '625мВт', 'Корпус': 'TO92', 'Монтаж': 'THT', 'Вид упаковки': 'Ammo Pack'}</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>www.tme.eu/Document/6fc4d4bda1f7e53502c9939019a00d3f/PN2222ABU.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>PMS 0.64</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>PMS0.64</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Изм.аксесс: измерительный набор; черный и красный</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0.0455</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>static.tme.eu/products_pics/6/8/e/68e430d252100da0095ea4e60cc8b3a0/558089.jpg</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>www.tme.eu/ru/details/pms0.64/nabory-izmer-provodov-s-aksessuarami/hirschmann-t-m/pms-0-64/</t>
+        </is>
+      </c>
+      <c r="G44" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип измерительных аксессуаров': 'измерительный набор', 'Цвет': 'черный и красный', 'Состав набора': 'зажим "крокодил" AGF1'}</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>www.tme.eu/Document/ba8ec780a8f7d34bd6e4df668539bb31/PMS 0,64_932959001.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>HRP-300-36</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>HRP-300-36</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Блок питания: импульсный; модульный; 324Вт; 36ВDC; 199x105x41мм</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0.9294</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>static.tme.eu/products_pics/e/5/a/e5aa7b418aaaa5df9965fd365caaf850/413931.jpg</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>www.tme.eu/ru/details/hrp-300-36/bloki-pitaniia-dlia-vstraivaniia/mean-well/</t>
+        </is>
+      </c>
+      <c r="G45" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип блока питания': 'импульсный', 'Вид блока питания': 'модульный', 'Мощность': '324Вт', 'Внешние размеры': '199x105x41мм', 'Выходной ток': '9А', 'Характеристики блоков питания/преобразователей': 'номинальные параметры при полной нагрузке', 'Вес': '950г', 'Рабочая температура': '-40...70°C', 'Количество выходов': '1', 'Электрическое подключение': 'клеммная колодка', 'Монтаж': 'открытое исполнение', 'Защита': 'от увеличения напряжения', 'Напряжение питания': '120...370В DC', 'КПД': '88%', 'Серия': 'HRP-300', 'Вид корпуса': '980A', 'Дополнительные функции': 'активное PFC', 'Выходное напряжение': '36В DC'}</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>www.tme.eu/Document/ee6f0e6a23c81f0c481af689425f21b2/INB-MN-ENCLOSED-RU.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>JSM-1618-20</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>JSM-1618-20</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Подшипник: опорная втулка; Øвнешн: 18мм; Øвнутр: 16мм; L: 20мм</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>static.tme.eu/products_pics/b/6/7/b67f61bbcb1a038c229b06fb941a3f9d/421795.jpg</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>www.tme.eu/ru/details/jsm-1618-20/podshipniki-skolzheniia/igus/</t>
+        </is>
+      </c>
+      <c r="G46" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип подшипника': 'опорная втулка', 'Внешний диаметр': '18мм', 'Внутренний диаметр': '16мм', 'Длина': '20мм', 'Материал': 'iglidur® J', 'Цвет': 'желтый', 'Характеристики механических элементов': 'бессмазочные', 'Рабочая температура': '-50...90°C', '#Common #name - #search': 'подшипник скольжения', 'Твердость по Шору': '74', 'Вид подшипника': 'скольжения'}</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>www.tme.eu/Document/86fbca866bb1e73a376a88d86a7e15e1/iglidur-J-EN.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>RK09K1130A8G</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>RK09K1130A8G</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Потенциометр: осевой; однооборотный,вертикальный; 10кОм; ±20%</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0.00141</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>static.tme.eu/products_pics/6/d/6/6d6c777d2215a2471a47dc16a393bfe0/417706.jpg</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>www.tme.eu/ru/details/rk09k1130a8g/potentsiometry-odnooborotnye-ugolnye/alps/</t>
+        </is>
+      </c>
+      <c r="G47" s="3" t="inlineStr">
+        <is>
+          <t>{'Тип потенциометра': 'осевой', 'Вид потенциометра': 'однооборотный', 'Сопротивление': '10кОм', 'Погрешность': '±20%', 'Диаметр оси': '6мм', 'Длина оси': '7,4мм', 'Характеристика': 'линейная', 'Размеры корпуса': '9,8x11x6,8мм', 'Выводы': 'на печатную плату', 'Характеристики потенциометров': 'моно', 'Вид оси': 'с насечкой', 'Угол поворота механический': '300°', 'Шаг выводов': '2,54мм', 'Материал оси': 'пластик'}</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>www.tme.eu/Document/fb277d87df6cd625a5906cf03c82b793/ALPS_RK09K.PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>P 128</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>P128</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Вилка; RJ12; PIN: 6; не экранированный; позолота; Конф: 6p6c; 26AWG</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0.00086</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>static.tme.eu/products_pics/e/6/1/e61dc2845e5b5731bff8f9d8bc031d66/405307.jpg</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>www.tme.eu/ru/details/p128/razemy-rj/lumberg/p-128/</t>
+        </is>
+      </c>
+      <c r="G48" s="3" t="inlineStr">
+        <is>
+          <t>{'Разъем': 'вилка', 'Тип разъема': 'RJ12', 'Кол-во выводов': '6', 'Версия разъема': 'не экранированный', 'Покрытие контакта': 'позолота', 'Конфигурация выводов разъема': '6p6c', 'Электрический монтаж': 'IDC', 'Механический монтаж': 'на провод', 'Дополнительная информация': 'больше товаров данной серии доступно на www.tme.eu', 'Применяются с разъемами': 'плоский провод', 'Ресурс': '2000циклов', 'Размер провода': '26AWG'}</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>www.tme.eu/Document/f94641d56faeb499bf7a946683e7815c/P128.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="49"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/productdata.xlsx
+++ b/productdata.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12585" windowWidth="22260" xWindow="0" yWindow="60"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -323,22 +323,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.4637</v>
+        <v>0.4609</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>{'Тип диода': 'LED', 'Диаметр диода LED': '8мм', 'Исполнение диода LED': 'трехцветный', 'Цвет диодa LED': 'RGB', 'Длина волны красного цвета λd': '620...630нм', 'Длина волны зеленого цвета λd': '515...530нм', 'Длина волны голубого цвета': '465...475нм', 'Монтаж': 'THT', 'Характеристики диодов LED': 'программируемый', '#Common #name - #search': 'управляемый', 'Рабочая температура': '-25...80°C', 'Кол-во цветов': '16,7M', 'Рабочее напряжение': '1,8..2,2/2,8..3,1/2,9..3,2В'}</t>
+          <t>{'Тип диода': 'LED', 'Диаметр диода LED': '8мм', 'Исполнение диода LED': 'трехцветный', 'Цвет диодa LED': 'RGB', 'Длина волны красного цвета λd': '620...630нм', 'Длина волны зеленого цвета λd': '515...530нм', 'Длина волны голубого цвета': '465...475нм', 'Монтаж': 'THT', 'Характеристики диодов LED': 'программируемый', '#Common #name - #search': 'управляемый', 'Рабочая температура': '-25...80°C', 'Кол-во цветов': '16,7M', 'Рабочее напряжение': '1,8...2,2/2,8...3,1/2,9...3,2В'}</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1090,7 +1090,7 @@
           <t>static.tme.eu/products_pics/b/5/0/b50d39ae95205c9cdb74ac3175ce020b/546968.jpg</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" s="1" t="inlineStr">
         <is>
           <t>www.tme.eu/ru/details/m22-fled-rg/panelnye-aksessuary-standartnye/eaton-electric/</t>
         </is>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="G29" s="3" t="inlineStr">
         <is>
-          <t>{'Тип микросхемы': 'микроконтроллер PIC', 'Память программы': '7кБ', 'Объем памяти SRAM': '256Б', 'Объем памяти EEPROM': '256Б', 'Интерфейс': 'MSSP (SPI / I2C)', 'Монтаж': 'SMD', 'Корпус': 'SO28', 'Кол-во входов/выходов': '25', 'Кол-во таймеров 8бит': '4', 'Кол-во таймеров 16бит': '1', 'Вид архитектуры': 'Harvard  8бит', 'Встроенный генератор': '32МГц', 'Семейство': 'PIC16', 'Рабочее напряжение': '1,8...5,5В'}</t>
+          <t>{'Тип микросхемы': 'микроконтроллер PIC', 'Память программы': '7кБ', 'Объем памяти SRAM': '256Б', 'Объем памяти EEPROM': '256Б', 'Интерфейс': 'MSSP (SPI / I2C)', 'Напряжение питания': '1,8...5,5В DC', 'Монтаж': 'SMD', 'Корпус': 'SO28', 'Кол-во входов/выходов': '25', 'Кол-во таймеров 8бит': '4', 'Кол-во таймеров 16бит': '1', 'Вид архитектуры': 'Harvard  8бит', 'Встроенный генератор': '32МГц', 'Семейство': 'PIC16'}</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1760,7 +1760,7 @@
           <t>static.tme.eu/products_pics/0/c/e/0ceb1f77d747ee63f0513d0a22097555/213063.jpg</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F37" s="1" t="inlineStr">
         <is>
           <t>www.tme.eu/ru/details/ss49e/datchiki-kholla/honeywell/</t>
         </is>
@@ -1920,7 +1920,7 @@
           <t>static.tme.eu/products_pics/4/8/a/48a33ccfb5a851d5982dcdda0776f7ac/285338.jpg</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F41" s="1" t="inlineStr">
         <is>
           <t>www.tme.eu/ru/details/max660csa+/reguliatory-napriazheniia-mikroskhemy-dc-dc/maxim-integrated/</t>
         </is>
@@ -2216,8 +2216,52 @@
         </is>
       </c>
     </row>
-    <row r="49"/>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>PT10LV10103A2020S</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>PT10LV-10K</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Потенциометр: монтажный; однооборотный,горизонтальный; 10кОм</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0.00062</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>static.tme.eu/products_pics/4/8/9/489b0853dca0e1de83ff0b390124fc9c/59967.jpg</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>www.tme.eu/ru/details/pt10lv-10k/potentsiometry-tht-odnooborotnye/piher/pt10lv10103a2020s/</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>{'Тип потенциометра': 'монтажный', 'Вид потенциометра': 'однооборотный', 'Сопротивление': '10кОм', 'Мощность': '150мВт', 'Погрешность': '±20%', 'Характеристика': 'линейная', 'Серия потенциометров': 'PT10LV', 'Стандарт потенциометра': '10мм', 'Угол поворота механический': '235 ±5°', 'Крутящий момент': '0,4...2Нсм', 'Рабочее напряжение макс.': '200В', 'Рабочая температура': '-25...70°C', 'Монтаж': 'THT', 'Шаг выводов': '5x10мм', 'Материал дорожки': 'углеродистый', 'Угол поворота электрический': '220 ±20°', 'Размеры корпуса': 'Ø10,3x4,5мм', 'Характеристики потенциометров': 'шлиц под крестовую отвертку'}</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>www.tme.eu/Document/0c37888a1f172cc56f5b3ed6f5607c24/PIHER_PT10_series.pdf</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F20" r:id="rId1"/>
+    <hyperlink ref="F37" r:id="rId2"/>
+    <hyperlink ref="F41" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>

--- a/productdata.xlsx
+++ b/productdata.xlsx
@@ -1,41 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_programming\TMEAPIdevelop_v11_1\APP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Helvetica"/>
+      <family val="2"/>
+      <color rgb="FF333333"/>
+      <sz val="9"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -50,28 +56,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="10">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
+    <cellStyle builtinId="8" name="Гиперссылка" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -337,37 +356,1000 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A1:I6"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="B21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="3" width="23.42578125"/>
+    <col customWidth="1" max="2" min="2" width="13.140625"/>
+    <col customWidth="1" max="3" min="3" width="20.7109375"/>
+    <col customWidth="1" max="9" min="9" style="6" width="48.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="2" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>P 128</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>P128</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Вилка; RJ12; PIN: 6; не экранированный; позолота; Конф: 6p6c; 26AWG</t>
+        </is>
+      </c>
+      <c r="D1" t="n">
+        <v>0.00086</v>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>static.tme.eu/products_pics/e/6/1/e61dc2845e5b5731bff8f9d8bc031d66/405307.jpg</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>www.tme.eu/ru/details/p128/razemy-rj/lumberg/p-128/</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>{'Разъем': 'вилка', 'Тип разъема': 'RJ12', 'Кол-во выводов': '6', 'Версия разъема': 'не экранированный', 'Покрытие контакта': 'позолота', 'Конфигурация выводов разъема': '6p6c', 'Электрический монтаж': 'IDC', 'Механический монтаж': 'на провод', 'Применяются с разъемами': 'плоский провод', 'Ресурс': '2000 циклов', 'Размер провода': '26AWG'}</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>www.tme.eu/Document/f94641d56faeb499bf7a946683e7815c/P128.pdf</t>
+        </is>
+      </c>
+      <c r="I1" s="6" t="inlineStr">
+        <is>
+          <t>По текстовому шаблону:
+ Штепсельные разъемы для монтажа на проводники, 6 контактов расположены с шагом 2.54 мм, c конфигурацией выводов 6p6c. Номинальное напряжение до 50 В, номинальный ток 3 А, контакты изготовлены из медного сплава с гальваническим покрытием из позолота, материал корпуса полиамид, рабочие температуры от -40 до 105°С, предназначены для радиоэлектронного оборудования общепромышленного назначения.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>09-50-3021</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MX-2139-2A</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Вилка; провод-плата; "мама"; KK 396; 3,96мм; PIN: 2; без контактов</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.00053</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>static.tme.eu/products_pics/a/d/c/adc7a7c41eb9a5687179d7eef91a53a8/338104.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>www.tme.eu/ru/details/mx-2139-2a/razemy-signalnye-rastr-3-96mm/molex/09-50-3021/</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{'Разъем': 'вилка', 'Тип разъема': 'провод - плата', 'Вид разъемов': '"мама"', 'Серия разъема': 'KK 396', 'Шаг контактов': '3,96мм', 'Кол-во выводов': '2', 'Версия разъема': 'без контактов', 'Механический монтаж': 'на провод', 'Класс горючести': 'UL94V-2', 'Конфигурация выводов разъема': '1x2', 'Рабочее напряжение макс.': '250В', 'Alias': '9503021', 'Engineering PN': '2139-2A'}</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>www.tme.eu/Document/c553b43254396d60e30fc0ad52ecb64e/9503101.pdf</t>
+        </is>
+      </c>
+      <c r="I2" s="6" t="inlineStr">
+        <is>
+          <t>По текстовому шаблону:
+ Штепсельные разъемы для монтажа на кабель, 2 контактов расположены с шагом 3,96мм, c конфигурацией выводов 1x2. Номинальное напряжение до 50 В, номинальный ток 3 А, контакты изготовлены из медного сплава с гальваническим покрытием из золота, материал корпуса полиамид, рабочие температуры от -40 до 105°С, предназначены для радиоэлектронного оборудования общепромышленного назначения.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>171692-0106</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MX-171692-0106</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Вилка; провод-плата; "мама"; Mega-Fit; 5,7мм; PIN: 6; Конф: 2x3; 23А</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0035</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>static.tme.eu/products_pics/0/2/5/025a1c5c7745ef6525f92e9062b39b6b/424939.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>www.tme.eu/ru/details/mx-171692-0106/razemy-signalnye-rastr-5-70mm/molex/171692-0106/</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{'Разъем': 'вилка', 'Тип разъема': 'провод - плата', 'Вид разъемов': '"мама"', 'Серия разъема': 'Mega-Fit', 'Шаг контактов': '5,7мм', 'Кол-во выводов': '6', 'Конфигурация выводов разъема': '2x3', 'Максимальный ток': '23А', 'Класс горючести': 'UL94V-0', 'Версия разъема': 'без контактов', 'Цвет': 'черный', 'Рабочая температура': '-40...105°C', 'Фиксация разъема': 'защелка', 'Механический монтаж': 'на провод', 'Пространственная ориентация': 'прямой', 'Alias': '1716920106', 'Engineering PN': '171692-0106'}</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>www.tme.eu/Document/0498fc69ae72e4fa7ad609f215554d1e/Mega-Fit MOLEX.txt</t>
+        </is>
+      </c>
+      <c r="I3" s="6" t="inlineStr">
+        <is>
+          <t>По текстовому шаблону:
+ Штепсельные разъемы для монтажа на кабель, 6 контактов расположены с шагом 5,7мм, c конфигурацией выводов 2x3. Номинальное напряжение до 50 В, номинальный ток 3 А, контакты изготовлены из медного сплава с гальваническим покрытием из золота, материал корпуса полиамид, рабочие температуры от -40 до 105°С, предназначены для радиоэлектронного оборудования общепромышленного назначения.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>42816-0412</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MX-42816-0412</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Вилка; провод-плата; "мама"; Серия: Mini-Fit Sr; 10мм; PIN: 4; 600В</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01074</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>static.tme.eu/products_pics/9/c/6/9c6840ea15823045d1db990f774bd7f3/366649.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>www.tme.eu/ru/details/mx-42816-0412/razemy-signalnye-rastr-10mm/molex/42816-0412/</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{'Разъем': 'вилка', 'Тип разъема': 'провод - плата', 'Вид разъемов': '"мама"', 'Серия разъема': 'Mini-Fit Sr.', 'Шаг контактов': '10мм', 'Кол-во выводов': '4', 'Alias': '428160412', 'Engineering PN': '42816-0412', 'Номинальное напряжение': '600В', 'Механический монтаж': 'на провод', 'Рабочая температура': '-40...105°C', 'Версия разъема': 'без контактов'}</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>www.tme.eu/Document/1f6b35bb6f23de72d8f577f3719e1057/mx42816.pdf</t>
+        </is>
+      </c>
+      <c r="I4" s="6" t="inlineStr">
+        <is>
+          <t>По текстовому шаблону:
+ Штепсельные разъемы для монтажа на кабель, 4 контактов расположены с шагом 10мм, c конфигурацией выводов в один ряд. Номинальное напряжение до 50 В, номинальный ток 3 А, контакты изготовлены из медного сплава с гальваническим покрытием из золота, материал корпуса полиамид, рабочие температуры от -40 до 105°С, предназначены для радиоэлектронного оборудования общепромышленного назначения..</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>502578-0700</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MX-502578-0700</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Вилка; провод-плата; "мама"; CLIK-Mate; 1,5мм; PIN: 7; на провод</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.00036</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>static.tme.eu/products_pics/3/c/8/3c86273de4738928cb85ee55c6283721/424952.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>www.tme.eu/ru/details/mx-502578-0700/razemy-signalnye-rastr-1-50mm/molex/502578-0700/</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{'Разъем': 'вилка', 'Тип разъема': 'провод - плата', 'Вид разъемов': '"мама"', 'Серия разъема': 'CLIK-Mate', 'Шаг контактов': '1,5мм', 'Кол-во выводов': '7', 'Версия разъема': 'без контактов', 'Механический монтаж': 'на провод', 'Фиксация разъема': 'защелка', 'Рабочая температура': '-25...85°C', 'Конфигурация выводов разъема': '1x7', 'Alias': '5025780700', 'Engineering PN': '502578-0700'}</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>www.tme.eu/Document/6875713b1f30ff5ff87e2fe31c7f0235/5025780200_sd.pdf</t>
+        </is>
+      </c>
+      <c r="I5" s="6" t="inlineStr">
+        <is>
+          <t>По текстовому шаблону:
+ Штепсельные разъемы для монтажа на кабель, 7 контактов расположены с шагом 1,5мм, c конфигурацией выводов 1x7. Номинальное напряжение до 50 В, номинальный ток 3 А, контакты изготовлены из медного сплава с гальваническим покрытием из золота, материал корпуса полиамид, рабочие температуры от -40 до 105°С, предназначены для радиоэлектронного оборудования общепромышленного назначения.</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="16.5" r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>503149-1000</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MX-503149-1000</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Вилка; провод-плата; "мама"; CLIK-Mate; 1,5мм; PIN: 10; на провод</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.00043</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>static.tme.eu/products_pics/4/3/d/43d49000d63b29f4ddd39b9ae26883cf/424954.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>www.tme.eu/ru/details/mx-503149-1000/razemy-signalnye-rastr-1-50mm/molex/503149-1000/</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{'Разъем': 'вилка', 'Тип разъема': 'провод - плата', 'Вид разъемов': '"мама"', 'Серия разъема': 'CLIK-Mate', 'Шаг контактов': '1,5мм', 'Кол-во выводов': '10', 'Версия разъема': 'без контактов', 'Механический монтаж': 'на провод', 'Фиксация разъема': 'защелка', 'Рабочая температура': '-25...85°C', 'Конфигурация выводов разъема': '2x5', 'Alias': '5031491000', 'Engineering PN': '503149-1000'}</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>www.tme.eu/Document/c33cc2020ff92d2ac74457cd277b7833/5031490800_sd.pdf</t>
+        </is>
+      </c>
+      <c r="I6" s="6" t="inlineStr">
+        <is>
+          <t>По текстовому шаблону:
+ Штепсельные разъемы для монтажа на кабель, 10 контактов расположены с шагом 1,5мм, c конфигурацией выводов 2x5. Номинальное напряжение до 50 В, номинальный ток 3 А, контакты изготовлены из медного сплава с гальваническим покрытием из золота, материал корпуса полиамид, рабочие температуры от -40 до 105°С, предназначены для радиоэлектронного оборудования общепромышленного назначения.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>DF11-8DS-2C</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DF11-8DS-2C</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Вилка; провод-плата; "мама"; DF11; 2мм; PIN: 8; без контактов</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00016</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>static.tme.eu/products_pics/9/0/f/90fe7e4e174bdaa02109a10ddbaf4fa7/496367.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>www.tme.eu/ru/details/df11-8ds-2c/razemy-signalnye-rastr-2-00mm/hirose/</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{'Разъем': 'вилка', 'Тип разъема': 'провод - плата', 'Вид разъемов': '"мама"', 'Серия разъема': 'DF11', 'Шаг контактов': '2мм', 'Кол-во выводов': '8', 'Версия разъема': 'без контактов', 'Механический монтаж': 'на провод', 'Конфигурация выводов разъема': '2x4', 'Применяются с разъемами': 'SPV-1500', 'Пространственная ориентация': 'прямой'}</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>www.tme.eu/Document/78ec56578e9ac8c4641e9cc8aa8d1871/DF11-XXDS-2C.pdf</t>
+        </is>
+      </c>
+      <c r="I7" s="6" t="inlineStr">
+        <is>
+          <t>По текстовому шаблону:
+ Штепсельные разъемы для монтажа на кабель, 8 контактов расположены с шагом 2мм, c конфигурацией выводов 2x4. Номинальное напряжение до 50 В, номинальный ток 3 А, контакты изготовлены из медного сплава с гальваническим покрытием из золота, материал корпуса полиамид, рабочие температуры от -40 до 105°С, предназначены для радиоэлектронного оборудования общепромышленного назначения.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>9454521925</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>09454521925</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Гнездо USB; 22мм; har-port; -25÷70°C; Ø22,3мм; IP20; Дл: 5м</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1462</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>static.tme.eu/products_pics/c/6/c/c6c6d80b009071a044d3b4bcfc4b1730/291426.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>www.tme.eu/ru/details/09454521925/panelnye-aksessuary-standartnye/harting/</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>{'Комплектующие систем управления': 'гнездо USB', 'Стандарт переключателя': '22мм', 'Серия производителя': 'har-port', 'Рабочая температура': '-25...70°C', 'Размер монтажного отверстия': 'Ø22,3мм', 'Класс защиты': 'IP20', 'Цвет': 'серебристый', 'Длина провода': '5м', 'Конструкция кабеля / переходника': 'USB 2.0 A/A', 'Сопутствующие товары': '09455020005'}</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>www.tme.eu/Document/a00dbe2d066f493fce87a2016ce306a2/har-port_EN.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>FK 02 L NI/RT</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FK02LNI-RT</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Вилка; "банан" 2мм; 10А; 70ВDC; красный; Покрытие: никелированные</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>static.tme.eu/products_pics/d/0/5/d0543a5a6cd6f19a9f66963450c8610e/520769.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>www.tme.eu/ru/details/fk02lni-rt/vilki-bananovye-2mm/schutzinger/fk-02-l-ni-rt/</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>{'Разъем': 'вилка', 'Тип разъема': '"банан" 2мм', 'Номинальный ток': '10А', 'Номинальное напряжение': '70В DC', 'Цвет': 'красный', 'Покрытие контакта': 'никелированные', 'Подключение': 'пайка', 'Длина': '22мм', 'Монтаж': 'на кабель', 'Рабочая температура': '-25...90°C', 'Диаметр кабеля макс.': '2мм'}</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>www.tme.eu/Document/849cabef334f82d575338cfff6ccede4/FK_02_L.pdf</t>
+        </is>
+      </c>
+      <c r="I9" s="6" t="inlineStr">
+        <is>
+          <t>С доп. заменой:
+Штепсельные одноконтактные тестовые разъёмы. Разъем вилка, Тип разъема банан 2мм, Номинальный ток 10А, Номинальное напряжение 70В постоянного тока, цвет изоляции красный, гальваниечкое покрытие контакта из никеля, Подключение пайка, Длина 22мм, Монтаж на кабель, Рабочая температура -25...90°C, Диаметр кабеля макс. 2мм, изоляция корпуса изготовлена из полиамида, предназначены для использования в радиоэлектронном оборудовании общепромышленного назначения.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>BNC-131</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BNC-131</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Соединитель; гнездо BNC,с обеих сторон; прямой; 50Ом</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.008189999999999999</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>static.tme.eu/products_pics/e/b/c/ebce48778133209ddaeed205b3d6641e/380077.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>www.tme.eu/ru/details/bnc-131/razemy-bnc/</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>{'Тип переходника': 'соединитель', 'Конструкция кабеля / переходника': 'с обеих сторон', 'Пространственная ориентация': 'прямой', 'Волновой импеданс': '50Ом'}</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>www.tme.eu/Document/a873f069c07a43a787e2747b7021104e/BNC-131.pdf</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Штепсельные разъёмы для коаксиальных кабелей. Тип переходника соединитель, Конструкция кабеля / переходника с обеих сторон, Пространственная ориентация прямой, Волновой импеданс 50Ом. Центральный контакт изготовлен из позолоченной бериллиевой меди, материал изолятора тефлон, корпус разъёма изготовлен из  латуни с покрытием из никеля, предназначены для монтажа на кабель, применяются в радиоэлектронной аппаратуре промышленного назначения.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>BNC-009</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BNC-009</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Тройник; вилка BNC,BNC гнездо x2; вилкообразный</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>static.tme.eu/products_pics/c/c/e/cce8a1c77e91f75c7b1d57855e56a84f/376238.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>www.tme.eu/ru/details/bnc-009/razemy-bnc/</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>{'Тип переходника': 'тройник', 'Конструкция кабеля / переходника': 'вилка BNC', 'Версия разъема': 'вилкообразный'}</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Антенные разветвители. Тип переходника тройник, Конструкция кабеля / переходника вилка BNC, Версия разъема вилкообразный. Предназначены для использования в радиоэлектронном оборудовании общепромышленного назначения.</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18.75" r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>0031.8201</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0031.8201</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Гнездо; цилиндрические предохранители; Монтаж: THT; 5x20мм; 10А</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.00202</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>static.tme.eu/products_pics/f/1/4/f142f99cb67d266834b86c46afc4e334/378693.jpg</t>
+        </is>
+      </c>
+      <c r="F12" s="8" t="inlineStr">
+        <is>
+          <t>www.tme.eu/ru/details/0031.8201/gnezda-predokhranitelnye-pcb/schurter/</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>{'Тип аксессуаров для предохранителей': 'гнездо', 'Применение предохранителей': 'цилиндрические предохранители', 'Монтаж': 'THT', 'Размер предохранителя': '5x20мм', 'Рабочая температура': '-40...85°C', 'Максимальный ток': '10А', 'Материал корпуса': 'термопласт', 'Класс горючести': 'UL94V-0', 'Шаг выводов': '22,5мм', 'Цвет': 'черный', 'Покрытие контакта': 'луженые', 'Материал контакта': 'медь', 'Номинальное напряжение': '250В AC', 'Сопротивление контактов': '5мОм', 'Сопутствующие товары': '0853.0551', 'Серия производителя': 'OGN'}</t>
+        </is>
+      </c>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>www.tme.eu/Document/bda068ec2b21b3b37cf0aea4e76e4671/typ_OGN.pdf</t>
+        </is>
+      </c>
+      <c r="I12" s="7" t="inlineStr">
+        <is>
+          <t>С доп. заменой:
+Штепсельные разъемы для монтажа на .... Контакты изготовлены из медного сплава, материал корпуса полиамид, Тип аксессуаров для предохранителей гнездо, Монтаж в отверстия печатной платы, Размер предохранителя 5x20мм, Рабочая температура -40...85°C, Максимальный ток 10А, Материал корпуса термопласт, Класс горючести UL94V-0, Шаг выводов 22,5мм, Цвет черный, Покрытие контакта луженые, Материал контакта медь, Номинальное напряжение 250В переменного тока, Сопротивление контактов 5мОм, Сопутствующие товары 0853.0551, Серия производителя OGN, рабочие температуры от -40 до 105°С, предназначены для радиоэлектронного оборудования общепромышленного назначения.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>39-01-2125</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MX-39-01-2125</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Вилка; провод-провод/плата; "мама"; Mini-Fit Jr; 4,2мм; PIN: 12</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.00261</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>static.tme.eu/products_pics/a/5/c/a5cdd4aa0048b187f7182f1b9ce7a6a7/737.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>www.tme.eu/ru/details/mx-39-01-2125/razemy-signalnye-rastr-4-20mm/molex/39-01-2125/</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>{'Разъем': 'вилка', 'Тип разъема': 'провод-провод/плата', 'Вид разъемов': '"мама"', 'Серия разъема': 'Mini-Fit Jr.', 'Шаг контактов': '4,2мм', 'Кол-во выводов': '12', 'Версия разъема': 'без контактов', 'Механический монтаж': 'на провод', 'Номинальное напряжение': '600В', 'Класс горючести': 'UL94V-0', 'Фиксация разъема': 'защелка', 'Рабочая температура': '-40...105°C', 'Конфигурация выводов разъема': '2x6', 'Alias': '39012125', 'Engineering PN': '5557-12R-210'}</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>www.tme.eu/Document/ee4743dcf9447f5de7e6e0b939407023/MX-39-01-2125.pdf</t>
+        </is>
+      </c>
+      <c r="I13" s="6" t="inlineStr">
+        <is>
+          <t>С доп. заменой:
+Части штепсельных разъёмов — контакты типа ..., изготовлены из медного сплава(фосфористая бронза). Разъем вилка, Тип разъема провод-провод/плата, гнездовые, для использования с разъёмами серии Mini-Fit Jr., Шаг контактов 4,2мм, Кол-во выводов 12, Версия разъема без контактов, Механический монтаж на провод, Номинальное напряжение 600В, Класс горючести UL94V-0, Фиксация разъема защелка, Рабочая температура -40...105°C, Конфигурация выводов разъема 2x6, Alias 39012125, Engineering PN 5557-12R-210, номинальный ток 3 А, предназначены  для изготовления штепсельного разъёма.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>J00026A0165</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>J00026A0165</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Вилка; RJ45; PIN: 8; Кат: 6a; экранированный,с направляющими жил</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.00286</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>static.tme.eu/products_pics/3/5/8/358ed141d3906ad1ba9fee12da689683/641756.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>www.tme.eu/ru/details/j00026a0165/razemy-rj/telegartner/</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>{'Разъем': 'вилка', 'Тип разъема': 'RJ45', 'Кол-во выводов': '8', 'Категория Ethernet': 'Cat 6a', 'Версия разъема': 'экранированный', 'Покрытие контакта': 'позолота', 'Рабочая температура': '-40...70°C', 'Конфигурация выводов разъема': '8p8c', 'Внешний диаметр провода': '5,5...7,3мм', 'Электрический монтаж': 'IDC', 'Механический монтаж': 'на провод', 'Пространственная ориентация': 'прямой', 'Применяются с разъемами': 'провод', 'Ресурс': '750 циклов', 'Размер провода': '27AWG...24AWG'}</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>www.tme.eu/Document/959adb2c0a6210cdaa6968b31c9a4195/J00026A0165.pdf</t>
+        </is>
+      </c>
+      <c r="I14" s="6" t="inlineStr">
+        <is>
+          <t>Телекоммуникационные разъемы типа RJ-45 розетка, для монтажа на ..., 8 скользящих контактов изготовлены из меди с гальваническим покрытием из золота. Разъем вилка, Тип разъема RJ45, Кол-во выводов 8, Категория Ethernet Cat 6a, Версия разъема экранированный, Покрытие контакта позолота, Рабочая температура -40...70°C, Конфигурация выводов разъема 8p8c, Внешний диаметр провода 5,5...7,3мм, Электрический монтаж Iпостоянного тока, Механический монтаж на провод, Пространственная ориентация прямой, Применяются с разъемами провод, Ресурс 750 циклов, Размер провода 27AWG...24AWG, стандарт Ethernet (1 порт), номинальный ток 1 А, материал изолятора термопластичный полиуретан (TPU), рабочие температуры от 0 до 70°С, Используются для подключения кабеля связи типа витая пара, предназначены для использования в телекоммуникациях.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>SP1310/S4IN</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SP1310/S4</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Вилка; "мама"; SP13; PIN: 4; IP68; 4÷6,5мм; 5А; пайка; на провод; 200В</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.00781</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>static.tme.eu/products_pics/2/f/d/2fda243fe416051cdb53f9d19e8dd28b/374605.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>www.tme.eu/ru/details/sp1310_s4/razemy-weipu/weipu/sp1310-s4in/</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>{'Тип разъема': 'круглый', 'Разъем': 'вилка', 'Вид разъемов': '"мама"', 'Серия разъема': 'SP13', 'Кол-во выводов': '4', 'Класс защиты': 'IP68', 'Внешний диаметр провода': '4...6,5мм', 'Номинальный ток': '5А', 'Электрический монтаж': 'пайка', 'Механический монтаж': 'на провод', 'Номинальное напряжение': '200В', 'Фиксация разъема': 'резьбовая', 'Рабочая температура': '-40...85°C', 'Сечение провода': '0,75мм&lt;sup&gt;2&lt;/sup&gt;'}</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>www.tme.eu/Document/d975e23edb7352745dc507cd1b15dd99/SP13.pdf</t>
+        </is>
+      </c>
+      <c r="I15" s="6" t="inlineStr">
+        <is>
+          <t>По текстовому шаблону:
+ Штепсельные разъемы для монтажа на проводники, 4 контактов расположены с шагом 2.54 мм, c конфигурацией выводов в один ряд. Номинальное напряжение до 50 В, номинальный ток 3 А, контакты изготовлены из медного сплава с гальваническим покрытием из золота, материал корпуса полиамид, рабочие температуры от -40 до 105°С, предназначены для радиоэлектронного оборудования общепромышленного назначения..</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>SP1311/S7IN</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SP1311/S7</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Вилка; "мама"; SP13; PIN: 7; IP68; 4÷6,5мм; 5А; пайка; на провод; 125В</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.009599999999999999</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>static.tme.eu/products_pics/f/2/c/f2cb4b8f90997fa9f0d07a7e0314bffb/374609.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>www.tme.eu/ru/details/sp1311_s7/razemy-weipu/weipu/sp1311-s7in/</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>{'Тип разъема': 'круглый', 'Разъем': 'вилка', 'Вид разъемов': '"мама"', 'Серия разъема': 'SP13', 'Кол-во выводов': '7', 'Класс защиты': 'IP68', 'Внешний диаметр провода': '4...6,5мм', 'Номинальный ток': '5А', 'Электрический монтаж': 'пайка', 'Механический монтаж': 'на провод', 'Номинальное напряжение': '125В', 'Фиксация разъема': 'резьбовая', 'Рабочая температура': '-40...85°C', 'Сечение провода': '0,75мм&lt;sup&gt;2&lt;/sup&gt;'}</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>www.tme.eu/Document/2f6e1e9f45d5fe0a75868ccdbb00266a/sp13series.pdf</t>
+        </is>
+      </c>
+      <c r="I16" s="6" t="inlineStr">
+        <is>
+          <t>По текстовому шаблону:
+ Штепсельные разъемы для монтажа на проводники, 7 контактов расположены с шагом 2.54 мм, c конфигурацией выводов в один ряд. Номинальное напряжение до 50 В, номинальный ток 3 А, контакты изготовлены из медного сплава с гальваническим покрытием из золота, материал корпуса полиамид, рабочие температуры от -40 до 105°С, предназначены для радиоэлектронного оборудования общепромышленного назначения..</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>XLP-02V</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>XLP-02V</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Вилка; провод-провод; "папа"; 5мм; PIN: 2; Конф: 2x1</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.00067</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>static.tme.eu/products_pics/8/5/a/85a9a3d96efc20ac9a28e78c7e1a1125/233239.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>www.tme.eu/ru/details/xlp-02v/razemy-signalnye-rastr-5-00mm/jst/</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>{'Разъем': 'вилка', 'Тип разъема': 'провод - провод', 'Вид разъемов': '"папа"', 'Шаг контактов': '5мм', 'Кол-во выводов': '2', 'Конфигурация выводов разъема': '2x1'}</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>www.tme.eu/Document/167878205f3ba7f9f1982b6296389bc5/xlwtw.pdf</t>
+        </is>
+      </c>
+      <c r="I17" s="6" t="inlineStr">
+        <is>
+          <t>С доп. заменой:
+Части штепсельных разъёмов — контакты типа ..., изготовлены из медного сплава(фосфористая бронза). Разъем вилка, Тип разъема провод - провод, штыревые, Шаг контактов 5мм, Кол-во выводов 2, Конфигурация выводов разъема 2x1, номинальный ток 3 А, предназначены  для изготовления штепсельного разъёма.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>0107 05</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0107-05</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Гнездо; DIN; "мама"; PIN: 5; Конф: 180°; прямой; пайка</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0102</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>static.tme.eu/products_pics/2/9/9/299466107f24da1dde1faff5d59cedbd/404214.jpg</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>www.tme.eu/ru/details/0107-05/razemy-din/lumberg/0107-05/</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>{'Разъем': 'гнездо', 'Тип разъема': 'DIN', 'Вид разъемов': '"мама"', 'Кол-во выводов': '5', 'Конфигурация выводов разъема': '180°', 'Пространственная ориентация': 'прямой', 'Механический монтаж': 'фланец (2 отверстия)', 'Электрический монтаж': 'пайка', 'Фиксация разъема': 'внешн. байонетное соединение'}</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>www.tme.eu/Document/23e6a22be292a453999db95833fb9534/0107.pdf</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>По текстовому шаблону:
+ Штепсельные разъемы для монтажа на проводники, 5 контактов расположены с шагом 2.54 мм, c конфигурацией выводов 180°. Номинальное напряжение до 50 В, номинальный ток 3 А, контакты изготовлены из медного сплава с гальваническим покрытием из золота, материал корпуса полиамид, рабочие температуры от -40 до 105°С, предназначены для радиоэлектронного оборудования общепромышленного назначения.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>DS1002-01-1*6V13</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>DS1002-01-1X06V13</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Гнездо; штыревой; "мама"; PIN: 6; цанговые контакты; прямой; 2,54мм</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.00034</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>static.tme.eu/products_pics/c/e/2/ce2e8f036e830d06697087549d6f2acd/396528.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>www.tme.eu/ru/details/ds1002-01-1x06v13/shtekernye-planki-i-gnezda/connfly/ds1002-01-1-6v13/</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>{'Разъем': 'гнездо', 'Тип разъема': 'штыревой', 'Вид разъемов': '"мама"', 'Кол-во выводов': '6', 'Версия разъема': 'цанговые контакты', 'Пространственная ориентация': 'прямой', 'Шаг контактов': '2,54мм', 'Электрический монтаж': 'THT', 'Конфигурация выводов разъема': '1x6'}</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>www.tme.eu/Document/39b11faf846b9209f407008dd9d3b291/DS1002-01.pdf</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>По текстовому шаблону:
+ Штепсельные разъемы для монтажа в отверстия печатной платы, 6 контактов расположены с шагом 2,54мм, c конфигурацией выводов 1x6. Номинальное напряжение до 50 В, номинальный ток 3 А, контакты изготовлены из медного сплава с гальваническим покрытием из золота, материал корпуса полиамид, рабочие температуры от -40 до 105°С, предназначены для радиоэлектронного оборудования общепромышленного назначения.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>4-103321-8</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>4-103321-8</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Штыревая планка; штыревой; AMPMODU MOD II; "папа"; PIN: 40; прямой</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.00242</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>static.tme.eu/products_pics/8/e/2/8e296a067a37563370ded05f5a3bf3ec/25.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>www.tme.eu/ru/details/4-103321-8/shtekernye-planki-i-gnezda/te-connectivity/</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>{'Разъем': 'штыревая планка', 'Тип разъема': 'штыревой', 'Серия разъема': 'AMPMODU MOD II', 'Вид разъемов': '"папа"', 'Кол-во выводов': '40', 'Пространственная ориентация': 'прямой', 'Шаг контактов': '2,54мм', 'Электрический монтаж': 'THT', 'Конфигурация выводов разъема': '1x40', 'Покрытие контакта': 'луженые', 'Размеры выводов': 'дл. 3,18мм', 'Высота': '8,08мм'}</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>По текстовому шаблону:
+ Штепсельные разъемы для монтажа в отверстия печатной платы, 40 контактов расположены с шагом 2,54мм, c конфигурацией выводов 1x40. Номинальное напряжение до 50 В, номинальный ток 3 А, контакты изготовлены из медного сплава с гальваническим покрытием из олова, материал корпуса полиамид, рабочие температуры от -40 до 105°С, предназначены для радиоэлектронного оборудования общепромышленного назначения.</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="30" r="21">
+      <c r="A21" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="22">
+      <c r="A22" s="1" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="1" t="n"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="26">
+      <c r="B26" s="1" t="n"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="1" t="n"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="1" t="n"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="30">
+      <c r="B30" s="1" t="n"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="1" t="n"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="33">
+      <c r="B33" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="34">
+      <c r="B34" s="1" t="n"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="1" t="n"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="1" t="n"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="38">
+      <c r="B38" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="39">
+      <c r="B39" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="40">
+      <c r="B40" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="30" r="41">
+      <c r="B41" s="1" t="n"/>
+    </row>
+    <row r="42">
+      <c r="B42" s="1" t="n"/>
+    </row>
+    <row r="43">
+      <c r="B43" s="9" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F12" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H12" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F18" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>